--- a/component-catalogue.xlsx
+++ b/component-catalogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colineby/Documents/bov-git/Elliott-920M-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED0A736-C98D-CD45-9C28-B8EF48BE1F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ADEED6-52ED-5649-9FDB-8870807A372A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="24660" windowHeight="16460" xr2:uid="{D1D284AE-C7E4-F649-9102-CA18D767FB70}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="24660" windowHeight="16440" xr2:uid="{D1D284AE-C7E4-F649-9102-CA18D767FB70}"/>
   </bookViews>
   <sheets>
     <sheet name="Visual Map" sheetId="6" r:id="rId1"/>
@@ -24,9 +24,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1129,7 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1155,15 +1154,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1232,9 +1222,6 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1273,6 +1260,21 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8304,7 +8306,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E801667-4C2C-644A-8A51-5B206153E1D9}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E801667-4C2C-644A-8A51-5B206153E1D9}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -8564,7 +8566,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F8BE4FC-C71E-904E-94BA-DE2DEBDAC0B5}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F8BE4FC-C71E-904E-94BA-DE2DEBDAC0B5}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -9155,14 +9157,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F31776-33C0-8841-973F-77999ECE9134}">
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="59" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="12" customWidth="1"/>
-    <col min="2" max="13" width="8.33203125" style="54" customWidth="1"/>
+    <col min="2" max="13" width="8.33203125" style="51" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="12"/>
     <col min="15" max="15" width="13.1640625" style="12" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="12"/>
@@ -9183,201 +9185,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
     </row>
     <row r="2" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="79"/>
+      <c r="F3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="79"/>
+      <c r="H3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="79"/>
+      <c r="J3" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="79"/>
+      <c r="L3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="O3" s="21" t="s">
+      <c r="M3" s="79"/>
+      <c r="O3" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="21" t="s">
+      <c r="P3" s="79"/>
+      <c r="Q3" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="79"/>
+      <c r="S3" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="21" t="s">
+      <c r="T3" s="79"/>
+      <c r="U3" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="22"/>
-      <c r="W3" s="21" t="s">
+      <c r="V3" s="79"/>
+      <c r="W3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="21" t="s">
+      <c r="X3" s="79"/>
+      <c r="Y3" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="21" t="s">
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="23" t="s">
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="22"/>
+      <c r="AD3" s="79"/>
     </row>
     <row r="4" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="str">
+      <c r="B4" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="24" t="str">
+      <c r="D4" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="24" t="str">
+      <c r="F4" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="H4" s="24" t="str">
+      <c r="H4" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="J4" s="24" t="str">
+      <c r="J4" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="L4" s="24" t="str">
+      <c r="L4" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="O4" s="24" t="str">
+      <c r="O4" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="P4" s="25" t="str">
+      <c r="P4" s="22" t="str">
         <f>Inventory!$I$1</f>
         <v>Colour Code</v>
       </c>
-      <c r="Q4" s="24" t="str">
+      <c r="Q4" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="R4" s="25" t="str">
+      <c r="R4" s="22" t="str">
         <f>Inventory!$I$1</f>
         <v>Colour Code</v>
       </c>
-      <c r="S4" s="26" t="str">
+      <c r="S4" s="23" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="T4" s="39" t="str">
+      <c r="T4" s="36" t="str">
         <f>Inventory!$I$1</f>
         <v>Colour Code</v>
       </c>
-      <c r="U4" s="26" t="str">
+      <c r="U4" s="23" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="V4" s="25" t="str">
+      <c r="V4" s="22" t="str">
         <f>Inventory!$I$1</f>
         <v>Colour Code</v>
       </c>
-      <c r="W4" s="26" t="str">
+      <c r="W4" s="23" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="X4" s="27" t="str">
+      <c r="X4" s="24" t="str">
         <f>Inventory!$I$1</f>
         <v>Colour Code</v>
       </c>
-      <c r="Y4" s="24" t="str">
+      <c r="Y4" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="Z4" s="25" t="str">
+      <c r="Z4" s="22" t="str">
         <f>Inventory!$I$1</f>
         <v>Colour Code</v>
       </c>
-      <c r="AA4" s="24" t="str">
+      <c r="AA4" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="AB4" s="25" t="str">
+      <c r="AB4" s="22" t="str">
         <f>Inventory!$I$1</f>
         <v>Colour Code</v>
       </c>
-      <c r="AC4" s="24" t="str">
+      <c r="AC4" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="AD4" s="25" t="str">
+      <c r="AD4" s="22" t="str">
         <f>Inventory!$I$1</f>
         <v>Colour Code</v>
       </c>
@@ -9386,51 +9388,51 @@
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="57" t="str">
+      <c r="B5" s="54" t="str">
         <f>Inventory!C480</f>
         <v>-</v>
       </c>
-      <c r="C5" s="55" t="str">
+      <c r="C5" s="81" t="str">
         <f>Inventory!D480</f>
-        <v>??</v>
-      </c>
-      <c r="D5" s="58" t="str">
+        <v>30F</v>
+      </c>
+      <c r="D5" s="55" t="str">
         <f>Inventory!C474</f>
         <v>-?</v>
       </c>
-      <c r="E5" s="55" t="str">
+      <c r="E5" s="52" t="str">
         <f>Inventory!D474</f>
         <v>22F</v>
       </c>
-      <c r="F5" s="58" t="str">
+      <c r="F5" s="55" t="str">
         <f>Inventory!C468</f>
         <v>?83-</v>
       </c>
-      <c r="G5" s="55" t="str">
+      <c r="G5" s="52" t="str">
         <f>Inventory!D468</f>
         <v>40F</v>
       </c>
-      <c r="H5" s="58" t="str">
+      <c r="H5" s="55" t="str">
         <f>Inventory!C462</f>
         <v>49282-B</v>
       </c>
-      <c r="I5" s="55" t="str">
+      <c r="I5" s="52" t="str">
         <f>Inventory!D462</f>
         <v>39F</v>
       </c>
-      <c r="J5" s="58" t="str">
+      <c r="J5" s="55" t="str">
         <f>Inventory!C456</f>
         <v>54221-D</v>
       </c>
-      <c r="K5" s="55" t="str">
+      <c r="K5" s="52" t="str">
         <f>Inventory!D456</f>
         <v>23F</v>
       </c>
-      <c r="L5" s="58" t="str">
+      <c r="L5" s="55" t="str">
         <f>Inventory!C450</f>
         <v>49025-F</v>
       </c>
-      <c r="M5" s="70" t="str">
+      <c r="M5" s="66" t="str">
         <f>Inventory!D450</f>
         <v>30F</v>
       </c>
@@ -9442,15 +9444,15 @@
         <f>Inventory!C2</f>
         <v>B--7-49309-B</v>
       </c>
-      <c r="P5" s="31" t="str">
+      <c r="P5" s="28" t="str">
         <f>Inventory!I2</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
-      <c r="Q5" s="35" t="str">
+      <c r="Q5" s="32" t="str">
         <f>Inventory!C58</f>
         <v>B--7-49309-J</v>
       </c>
-      <c r="R5" s="31" t="str">
+      <c r="R5" s="28" t="str">
         <f>Inventory!I58</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -9458,7 +9460,7 @@
         <f>Inventory!C114</f>
         <v>B--7-49545-AJ</v>
       </c>
-      <c r="T5" s="32" t="str">
+      <c r="T5" s="29" t="str">
         <f>Inventory!I114</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -9474,15 +9476,15 @@
         <f>Inventory!C226</f>
         <v>B--8-49109-AC</v>
       </c>
-      <c r="X5" s="31" t="str">
+      <c r="X5" s="28" t="str">
         <f>Inventory!I226</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="Y5" s="35" t="str">
+      <c r="Y5" s="32" t="str">
         <f>Inventory!C282</f>
         <v>B--8-49253-AM</v>
       </c>
-      <c r="Z5" s="31" t="str">
+      <c r="Z5" s="28" t="str">
         <f>Inventory!I282</f>
         <v>Gn-Gy-Pr-Or</v>
       </c>
@@ -9490,7 +9492,7 @@
         <f>Inventory!C338</f>
         <v>B--8-49353-AN</v>
       </c>
-      <c r="AB5" s="31" t="str">
+      <c r="AB5" s="28" t="str">
         <f>Inventory!I338</f>
         <v>Gn-Gy-Pr-Or</v>
       </c>
@@ -9507,51 +9509,51 @@
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="59" t="str">
+      <c r="B6" s="56" t="str">
         <f>Inventory!C481</f>
         <v>49024-B</v>
       </c>
-      <c r="C6" s="69" t="str">
+      <c r="C6" s="65" t="str">
         <f>Inventory!D481</f>
         <v>30F</v>
       </c>
-      <c r="D6" s="60" t="str">
+      <c r="D6" s="57" t="str">
         <f>Inventory!C475</f>
         <v>49025-?</v>
       </c>
-      <c r="E6" s="69" t="str">
+      <c r="E6" s="65" t="str">
         <f>Inventory!D475</f>
         <v>30F</v>
       </c>
-      <c r="F6" s="60" t="str">
+      <c r="F6" s="57" t="str">
         <f>Inventory!C469</f>
         <v>49040-A</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="73">
         <f>Inventory!D469</f>
         <v>35</v>
       </c>
-      <c r="H6" s="60" t="str">
+      <c r="H6" s="57" t="str">
         <f>Inventory!C463</f>
         <v>91278-C</v>
       </c>
-      <c r="I6" s="77" t="str">
+      <c r="I6" s="73" t="str">
         <f>Inventory!D463</f>
         <v>35F</v>
       </c>
-      <c r="J6" s="60" t="str">
+      <c r="J6" s="57" t="str">
         <f>Inventory!C457</f>
         <v>49025-J</v>
       </c>
-      <c r="K6" s="69" t="str">
+      <c r="K6" s="65" t="str">
         <f>Inventory!D457</f>
         <v>30F</v>
       </c>
-      <c r="L6" s="60" t="str">
+      <c r="L6" s="57" t="str">
         <f>Inventory!C451</f>
         <v>49025-A</v>
       </c>
-      <c r="M6" s="71" t="str">
+      <c r="M6" s="67" t="str">
         <f>Inventory!D451</f>
         <v>30F</v>
       </c>
@@ -9563,15 +9565,15 @@
         <f>Inventory!C3</f>
         <v>B--8-49344-L</v>
       </c>
-      <c r="P6" s="32" t="str">
+      <c r="P6" s="29" t="str">
         <f>Inventory!I3</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="Q6" s="36" t="str">
+      <c r="Q6" s="33" t="str">
         <f>Inventory!C59</f>
         <v>B--7-49321-W</v>
       </c>
-      <c r="R6" s="32" t="str">
+      <c r="R6" s="29" t="str">
         <f>Inventory!I59</f>
         <v>Gn-Gn-Bu-Or</v>
       </c>
@@ -9579,7 +9581,7 @@
         <f>Inventory!C115</f>
         <v>B--7-49320-H</v>
       </c>
-      <c r="T6" s="32" t="str">
+      <c r="T6" s="29" t="str">
         <f>Inventory!I115</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
@@ -9595,15 +9597,15 @@
         <f>Inventory!C227</f>
         <v>B--8-49109-B</v>
       </c>
-      <c r="X6" s="32" t="str">
+      <c r="X6" s="29" t="str">
         <f>Inventory!I227</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="Y6" s="36" t="str">
+      <c r="Y6" s="33" t="str">
         <f>Inventory!C283</f>
         <v>B--8-49353-G</v>
       </c>
-      <c r="Z6" s="32" t="str">
+      <c r="Z6" s="29" t="str">
         <f>Inventory!I283</f>
         <v>Gn-Gy-Pr-Or</v>
       </c>
@@ -9611,7 +9613,7 @@
         <f>Inventory!C339</f>
         <v>B--8-49353-T</v>
       </c>
-      <c r="AB6" s="32" t="str">
+      <c r="AB6" s="29" t="str">
         <f>Inventory!I339</f>
         <v>Gn-Gy-Pr-Or</v>
       </c>
@@ -9628,51 +9630,51 @@
       <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="59" t="str">
+      <c r="B7" s="56" t="str">
         <f>Inventory!C482</f>
         <v>49024-F</v>
       </c>
-      <c r="C7" s="69" t="str">
+      <c r="C7" s="65" t="str">
         <f>Inventory!D482</f>
         <v>30F</v>
       </c>
-      <c r="D7" s="60" t="str">
+      <c r="D7" s="57" t="str">
         <f>Inventory!C476</f>
         <v>49024-C</v>
       </c>
-      <c r="E7" s="69" t="str">
+      <c r="E7" s="65" t="str">
         <f>Inventory!D476</f>
         <v>30F</v>
       </c>
-      <c r="F7" s="60" t="str">
+      <c r="F7" s="57" t="str">
         <f>Inventory!C470</f>
         <v>46039-A</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="72">
         <f>Inventory!D470</f>
         <v>34</v>
       </c>
-      <c r="H7" s="60" t="str">
+      <c r="H7" s="57" t="str">
         <f>Inventory!C464</f>
         <v>49039-E</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="72">
         <f>Inventory!D464</f>
         <v>34</v>
       </c>
-      <c r="J7" s="60" t="str">
+      <c r="J7" s="57" t="str">
         <f>Inventory!C458</f>
         <v>49025-B</v>
       </c>
-      <c r="K7" s="69" t="str">
+      <c r="K7" s="65" t="str">
         <f>Inventory!D458</f>
         <v>30F</v>
       </c>
-      <c r="L7" s="60" t="str">
+      <c r="L7" s="57" t="str">
         <f>Inventory!C452</f>
         <v>49025-J?</v>
       </c>
-      <c r="M7" s="71" t="str">
+      <c r="M7" s="67" t="str">
         <f>Inventory!D452</f>
         <v>30F</v>
       </c>
@@ -9684,15 +9686,15 @@
         <f>Inventory!C4</f>
         <v>B--7-49299-A</v>
       </c>
-      <c r="P7" s="32" t="str">
+      <c r="P7" s="29" t="str">
         <f>Inventory!I4</f>
         <v>__-Pr-__-Or</v>
       </c>
-      <c r="Q7" s="36" t="str">
+      <c r="Q7" s="33" t="str">
         <f>Inventory!C60</f>
         <v>B--7-49078-R</v>
       </c>
-      <c r="R7" s="32" t="str">
+      <c r="R7" s="29" t="str">
         <f>Inventory!I60</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -9700,7 +9702,7 @@
         <f>Inventory!C116</f>
         <v>B--7-49545-N</v>
       </c>
-      <c r="T7" s="32" t="str">
+      <c r="T7" s="29" t="str">
         <f>Inventory!I116</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -9716,15 +9718,15 @@
         <f>Inventory!C228</f>
         <v>B--7-49333-H</v>
       </c>
-      <c r="X7" s="32" t="str">
+      <c r="X7" s="29" t="str">
         <f>Inventory!I228</f>
         <v>Gn-Bu-Or-Or</v>
       </c>
-      <c r="Y7" s="36" t="str">
+      <c r="Y7" s="33" t="str">
         <f>Inventory!C284</f>
         <v>B--7-49107-D</v>
       </c>
-      <c r="Z7" s="32" t="str">
+      <c r="Z7" s="29" t="str">
         <f>Inventory!I284</f>
         <v>Gn-Bu-Bu-Or</v>
       </c>
@@ -9732,7 +9734,7 @@
         <f>Inventory!C340</f>
         <v>B--7-49326-O</v>
       </c>
-      <c r="AB7" s="32" t="str">
+      <c r="AB7" s="29" t="str">
         <f>Inventory!I340</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -9749,51 +9751,51 @@
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="59" t="str">
+      <c r="B8" s="56" t="str">
         <f>Inventory!C483</f>
         <v>49024-E</v>
       </c>
-      <c r="C8" s="69" t="str">
+      <c r="C8" s="65" t="str">
         <f>Inventory!D483</f>
         <v>30F</v>
       </c>
-      <c r="D8" s="60" t="str">
+      <c r="D8" s="57" t="str">
         <f>Inventory!C477</f>
         <v>49024-A</v>
       </c>
-      <c r="E8" s="69" t="str">
+      <c r="E8" s="65" t="str">
         <f>Inventory!D477</f>
         <v>30F</v>
       </c>
-      <c r="F8" s="60" t="str">
+      <c r="F8" s="57" t="str">
         <f>Inventory!C471</f>
         <v>49280-A</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="53">
         <f>Inventory!D471</f>
         <v>38</v>
       </c>
-      <c r="H8" s="60" t="str">
+      <c r="H8" s="57" t="str">
         <f>Inventory!C465</f>
         <v>49042-A</v>
       </c>
-      <c r="I8" s="56" t="str">
+      <c r="I8" s="53" t="str">
         <f>Inventory!D465</f>
         <v>36F</v>
       </c>
-      <c r="J8" s="60" t="str">
+      <c r="J8" s="57" t="str">
         <f>Inventory!C459</f>
         <v>49025-C</v>
       </c>
-      <c r="K8" s="69" t="str">
+      <c r="K8" s="65" t="str">
         <f>Inventory!D459</f>
         <v>30F</v>
       </c>
-      <c r="L8" s="60" t="str">
+      <c r="L8" s="57" t="str">
         <f>Inventory!C453</f>
         <v>49025-J</v>
       </c>
-      <c r="M8" s="71" t="str">
+      <c r="M8" s="67" t="str">
         <f>Inventory!D453</f>
         <v>30F</v>
       </c>
@@ -9805,15 +9807,15 @@
         <f>Inventory!C5</f>
         <v>B--7-49299-AG</v>
       </c>
-      <c r="P8" s="32" t="str">
+      <c r="P8" s="29" t="str">
         <f>Inventory!I5</f>
         <v>__-Pr-__-Or</v>
       </c>
-      <c r="Q8" s="36" t="str">
+      <c r="Q8" s="33" t="str">
         <f>Inventory!C61</f>
         <v>B--7-49309-Z</v>
       </c>
-      <c r="R8" s="32" t="str">
+      <c r="R8" s="29" t="str">
         <f>Inventory!I61</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -9821,7 +9823,7 @@
         <f>Inventory!C117</f>
         <v>B--7-49545-Y</v>
       </c>
-      <c r="T8" s="32" t="str">
+      <c r="T8" s="29" t="str">
         <f>Inventory!I117</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -9837,15 +9839,15 @@
         <f>Inventory!C229</f>
         <v>B--7-49341-O</v>
       </c>
-      <c r="X8" s="32" t="str">
+      <c r="X8" s="29" t="str">
         <f>Inventory!I229</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
-      <c r="Y8" s="36" t="str">
+      <c r="Y8" s="33" t="str">
         <f>Inventory!C285</f>
         <v>B--7-49104-F</v>
       </c>
-      <c r="Z8" s="32" t="str">
+      <c r="Z8" s="29" t="str">
         <f>Inventory!I285</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
@@ -9853,7 +9855,7 @@
         <f>Inventory!C341</f>
         <v>B--7-49576-AQ</v>
       </c>
-      <c r="AB8" s="32" t="str">
+      <c r="AB8" s="29" t="str">
         <f>Inventory!I341</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -9870,51 +9872,51 @@
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="59" t="str">
+      <c r="B9" s="56" t="str">
         <f>Inventory!C484</f>
         <v>49024-D</v>
       </c>
-      <c r="C9" s="69" t="str">
+      <c r="C9" s="65" t="str">
         <f>Inventory!D484</f>
         <v>30F</v>
       </c>
-      <c r="D9" s="60" t="str">
+      <c r="D9" s="57" t="str">
         <f>Inventory!C478</f>
         <v>49024-H</v>
       </c>
-      <c r="E9" s="69" t="str">
+      <c r="E9" s="65" t="str">
         <f>Inventory!D478</f>
         <v>30F</v>
       </c>
-      <c r="F9" s="60" t="str">
+      <c r="F9" s="57" t="str">
         <f>Inventory!C472</f>
         <v>49047-E</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="53">
         <f>Inventory!D472</f>
         <v>45</v>
       </c>
-      <c r="H9" s="60" t="str">
+      <c r="H9" s="57" t="str">
         <f>Inventory!C466</f>
         <v>-B</v>
       </c>
-      <c r="I9" s="56" t="str">
+      <c r="I9" s="53" t="str">
         <f>Inventory!D466</f>
         <v>27F</v>
       </c>
-      <c r="J9" s="60" t="str">
+      <c r="J9" s="57" t="str">
         <f>Inventory!C460</f>
         <v>49025-F</v>
       </c>
-      <c r="K9" s="69" t="str">
+      <c r="K9" s="65" t="str">
         <f>Inventory!D460</f>
         <v>30F</v>
       </c>
-      <c r="L9" s="60" t="str">
+      <c r="L9" s="57" t="str">
         <f>Inventory!C454</f>
         <v>49025-J</v>
       </c>
-      <c r="M9" s="71" t="str">
+      <c r="M9" s="67" t="str">
         <f>Inventory!D454</f>
         <v>30F</v>
       </c>
@@ -9926,15 +9928,15 @@
         <f>Inventory!C6</f>
         <v>B--8-49344-E</v>
       </c>
-      <c r="P9" s="32" t="str">
+      <c r="P9" s="29" t="str">
         <f>Inventory!I6</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="Q9" s="36" t="str">
+      <c r="Q9" s="33" t="str">
         <f>Inventory!C62</f>
         <v>B--7-49323-H</v>
       </c>
-      <c r="R9" s="32" t="str">
+      <c r="R9" s="29" t="str">
         <f>Inventory!I62</f>
         <v>Gn-Gn-Gy-Or</v>
       </c>
@@ -9942,7 +9944,7 @@
         <f>Inventory!C118</f>
         <v>B--7-49320-T</v>
       </c>
-      <c r="T9" s="32" t="str">
+      <c r="T9" s="29" t="str">
         <f>Inventory!I118</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
@@ -9958,15 +9960,15 @@
         <f>Inventory!C230</f>
         <v>B-1-0-49570-T</v>
       </c>
-      <c r="X9" s="32" t="str">
+      <c r="X9" s="29" t="str">
         <f>Inventory!I230</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
-      <c r="Y9" s="36" t="str">
+      <c r="Y9" s="33" t="str">
         <f>Inventory!C286</f>
         <v>B--7-49333-AD</v>
       </c>
-      <c r="Z9" s="32" t="str">
+      <c r="Z9" s="29" t="str">
         <f>Inventory!I286</f>
         <v>Gn-Bu-Or-Or</v>
       </c>
@@ -9974,7 +9976,7 @@
         <f>Inventory!C342</f>
         <v>B--7-49326-AA</v>
       </c>
-      <c r="AB9" s="32" t="str">
+      <c r="AB9" s="29" t="str">
         <f>Inventory!I342</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -9991,51 +9993,51 @@
       <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="61" t="str">
+      <c r="B10" s="58" t="str">
         <f>Inventory!C485</f>
         <v>49214-D</v>
       </c>
-      <c r="C10" s="72" t="str">
+      <c r="C10" s="68" t="str">
         <f>Inventory!D485</f>
         <v>33F</v>
       </c>
-      <c r="D10" s="63" t="str">
+      <c r="D10" s="60" t="str">
         <f>Inventory!C479</f>
         <v>49269-?</v>
       </c>
-      <c r="E10" s="72" t="str">
+      <c r="E10" s="68" t="str">
         <f>Inventory!D479</f>
         <v>33F</v>
       </c>
-      <c r="F10" s="63" t="str">
+      <c r="F10" s="60" t="str">
         <f>Inventory!C473</f>
         <v>49214-B</v>
       </c>
-      <c r="G10" s="72" t="str">
+      <c r="G10" s="68" t="str">
         <f>Inventory!D473</f>
         <v>33F</v>
       </c>
-      <c r="H10" s="63" t="str">
+      <c r="H10" s="60" t="str">
         <f>Inventory!C467</f>
         <v>49214-B</v>
       </c>
-      <c r="I10" s="72" t="str">
+      <c r="I10" s="68" t="str">
         <f>Inventory!D467</f>
         <v>33F</v>
       </c>
-      <c r="J10" s="63" t="str">
+      <c r="J10" s="60" t="str">
         <f>Inventory!C461</f>
         <v>49269-E</v>
       </c>
-      <c r="K10" s="72" t="str">
+      <c r="K10" s="68" t="str">
         <f>Inventory!D461</f>
         <v>33F</v>
       </c>
-      <c r="L10" s="63" t="str">
+      <c r="L10" s="60" t="str">
         <f>Inventory!C455</f>
         <v>49269-C</v>
       </c>
-      <c r="M10" s="73" t="str">
+      <c r="M10" s="69" t="str">
         <f>Inventory!D455</f>
         <v>33F</v>
       </c>
@@ -10047,15 +10049,15 @@
         <f>Inventory!C7</f>
         <v>B--9-49354-AA</v>
       </c>
-      <c r="P10" s="32" t="str">
+      <c r="P10" s="29" t="str">
         <f>Inventory!I7</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q10" s="36" t="str">
+      <c r="Q10" s="33" t="str">
         <f>Inventory!C63</f>
         <v>B--7-49078-AG</v>
       </c>
-      <c r="R10" s="32" t="str">
+      <c r="R10" s="29" t="str">
         <f>Inventory!I63</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -10063,7 +10065,7 @@
         <f>Inventory!C119</f>
         <v>B--7-49545-P</v>
       </c>
-      <c r="T10" s="32" t="str">
+      <c r="T10" s="29" t="str">
         <f>Inventory!I119</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -10079,15 +10081,15 @@
         <f>Inventory!C231</f>
         <v>B--7-49333-Z</v>
       </c>
-      <c r="X10" s="32" t="str">
+      <c r="X10" s="29" t="str">
         <f>Inventory!I231</f>
         <v>Gn-Bu-Or-Or</v>
       </c>
-      <c r="Y10" s="36" t="str">
+      <c r="Y10" s="33" t="str">
         <f>Inventory!C287</f>
         <v>B--7-49333-A</v>
       </c>
-      <c r="Z10" s="32" t="str">
+      <c r="Z10" s="29" t="str">
         <f>Inventory!I287</f>
         <v>Gn-Bu-Or-Or</v>
       </c>
@@ -10095,7 +10097,7 @@
         <f>Inventory!C343</f>
         <v xml:space="preserve">B-1-0-49570-M </v>
       </c>
-      <c r="AB10" s="32" t="str">
+      <c r="AB10" s="29" t="str">
         <f>Inventory!I343</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
@@ -10117,15 +10119,15 @@
         <f>Inventory!C8</f>
         <v>B--7-49299-AH</v>
       </c>
-      <c r="P11" s="32" t="str">
+      <c r="P11" s="29" t="str">
         <f>Inventory!I8</f>
         <v>__-Pr-__-Or</v>
       </c>
-      <c r="Q11" s="36" t="str">
+      <c r="Q11" s="33" t="str">
         <f>Inventory!C64</f>
         <v>B--7-49309-C</v>
       </c>
-      <c r="R11" s="32" t="str">
+      <c r="R11" s="29" t="str">
         <f>Inventory!I64</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -10133,7 +10135,7 @@
         <f>Inventory!C120</f>
         <v>B--7-49545-AD</v>
       </c>
-      <c r="T11" s="32" t="str">
+      <c r="T11" s="29" t="str">
         <f>Inventory!I120</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -10149,15 +10151,15 @@
         <f>Inventory!C232</f>
         <v>B--7-49100-D</v>
       </c>
-      <c r="X11" s="32" t="str">
+      <c r="X11" s="29" t="str">
         <f>Inventory!I232</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
-      <c r="Y11" s="36" t="str">
+      <c r="Y11" s="33" t="str">
         <f>Inventory!C288</f>
         <v>B--7-49104-A</v>
       </c>
-      <c r="Z11" s="32" t="str">
+      <c r="Z11" s="29" t="str">
         <f>Inventory!I288</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
@@ -10165,7 +10167,7 @@
         <f>Inventory!C344</f>
         <v>B--7-49326-A</v>
       </c>
-      <c r="AB11" s="32" t="str">
+      <c r="AB11" s="29" t="str">
         <f>Inventory!I344</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -10179,18 +10181,18 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
       <c r="N12" s="12">
         <f>Inventory!B9</f>
         <v>12</v>
@@ -10199,15 +10201,15 @@
         <f>Inventory!C9</f>
         <v>B--8-49344-AO</v>
       </c>
-      <c r="P12" s="32" t="str">
+      <c r="P12" s="29" t="str">
         <f>Inventory!I9</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="Q12" s="36" t="str">
+      <c r="Q12" s="33" t="str">
         <f>Inventory!C65</f>
         <v>B--7-49086-O</v>
       </c>
-      <c r="R12" s="32" t="str">
+      <c r="R12" s="29" t="str">
         <f>Inventory!I65</f>
         <v>Gn-Gn-Pr-Or</v>
       </c>
@@ -10215,7 +10217,7 @@
         <f>Inventory!C121</f>
         <v>B--7-49320-AM</v>
       </c>
-      <c r="T12" s="32" t="str">
+      <c r="T12" s="29" t="str">
         <f>Inventory!I121</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
@@ -10231,15 +10233,15 @@
         <f>Inventory!C233</f>
         <v>B--7-49333-B</v>
       </c>
-      <c r="X12" s="32" t="str">
+      <c r="X12" s="29" t="str">
         <f>Inventory!I233</f>
         <v>Gn-Bu-Or-Or</v>
       </c>
-      <c r="Y12" s="36" t="str">
+      <c r="Y12" s="33" t="str">
         <f>Inventory!C289</f>
         <v xml:space="preserve">B--7-49107-Y </v>
       </c>
-      <c r="Z12" s="32" t="str">
+      <c r="Z12" s="29" t="str">
         <f>Inventory!I289</f>
         <v>Gn-Bu-Bu-Or</v>
       </c>
@@ -10247,7 +10249,7 @@
         <f>Inventory!C345</f>
         <v>B--7-49326-AF</v>
       </c>
-      <c r="AB12" s="32" t="str">
+      <c r="AB12" s="29" t="str">
         <f>Inventory!I345</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -10261,18 +10263,18 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
       <c r="N13" s="12">
         <f>Inventory!B10</f>
         <v>13</v>
@@ -10281,15 +10283,15 @@
         <f>Inventory!C10</f>
         <v>B--9-49354-AI</v>
       </c>
-      <c r="P13" s="32" t="str">
+      <c r="P13" s="29" t="str">
         <f>Inventory!I10</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q13" s="36" t="str">
+      <c r="Q13" s="33" t="str">
         <f>Inventory!C66</f>
         <v>B--7-49078-L</v>
       </c>
-      <c r="R13" s="32" t="str">
+      <c r="R13" s="29" t="str">
         <f>Inventory!I66</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -10297,7 +10299,7 @@
         <f>Inventory!C122</f>
         <v>B--7-49545-P</v>
       </c>
-      <c r="T13" s="32" t="str">
+      <c r="T13" s="29" t="str">
         <f>Inventory!I122</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -10313,15 +10315,15 @@
         <f>Inventory!C234</f>
         <v xml:space="preserve">B-1-0-49570-V </v>
       </c>
-      <c r="X13" s="32" t="str">
+      <c r="X13" s="29" t="str">
         <f>Inventory!I234</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
-      <c r="Y13" s="36" t="str">
+      <c r="Y13" s="33" t="str">
         <f>Inventory!C290</f>
         <v>B--7-49104-V</v>
       </c>
-      <c r="Z13" s="32" t="str">
+      <c r="Z13" s="29" t="str">
         <f>Inventory!I290</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
@@ -10329,7 +10331,7 @@
         <f>Inventory!C346</f>
         <v>B--7-49326-P</v>
       </c>
-      <c r="AB13" s="32" t="str">
+      <c r="AB13" s="29" t="str">
         <f>Inventory!I346</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -10343,18 +10345,18 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="12">
         <f>Inventory!B11</f>
         <v>14</v>
@@ -10363,15 +10365,15 @@
         <f>Inventory!C11</f>
         <v>B--7-49299-Z</v>
       </c>
-      <c r="P14" s="32" t="str">
+      <c r="P14" s="29" t="str">
         <f>Inventory!I11</f>
         <v>__-Pr-__-Or</v>
       </c>
-      <c r="Q14" s="36" t="str">
+      <c r="Q14" s="33" t="str">
         <f>Inventory!C67</f>
         <v>B--7-49309-I</v>
       </c>
-      <c r="R14" s="32" t="str">
+      <c r="R14" s="29" t="str">
         <f>Inventory!I67</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -10379,31 +10381,31 @@
         <f>Inventory!C123</f>
         <v>B--7-49545-V</v>
       </c>
-      <c r="T14" s="32" t="str">
+      <c r="T14" s="29" t="str">
         <f>Inventory!I123</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
-      <c r="U14" s="44" t="str">
+      <c r="U14" s="41" t="str">
         <f>Inventory!C179</f>
         <v>B---49204-D</v>
       </c>
-      <c r="V14" s="45" t="str">
+      <c r="V14" s="42" t="str">
         <f>Inventory!I179</f>
         <v>__-Bk-Bu-Gn</v>
       </c>
-      <c r="W14" s="40" t="str">
+      <c r="W14" s="37" t="str">
         <f>Inventory!C235</f>
         <v/>
       </c>
-      <c r="X14" s="41" t="str">
+      <c r="X14" s="38" t="str">
         <f>Inventory!I235</f>
         <v>__-Bk-Bu-Gn</v>
       </c>
-      <c r="Y14" s="36" t="str">
+      <c r="Y14" s="33" t="str">
         <f>Inventory!C291</f>
         <v>B--7-49100-O</v>
       </c>
-      <c r="Z14" s="32" t="str">
+      <c r="Z14" s="29" t="str">
         <f>Inventory!I291</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -10411,7 +10413,7 @@
         <f>Inventory!C347</f>
         <v>B--7-49326-N</v>
       </c>
-      <c r="AB14" s="32" t="str">
+      <c r="AB14" s="29" t="str">
         <f>Inventory!I347</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -10425,18 +10427,18 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
       <c r="N15" s="12">
         <f>Inventory!B12</f>
         <v>15</v>
@@ -10445,15 +10447,15 @@
         <f>Inventory!C12</f>
         <v>B--8-49344-Y</v>
       </c>
-      <c r="P15" s="32" t="str">
+      <c r="P15" s="29" t="str">
         <f>Inventory!I12</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="Q15" s="36" t="str">
+      <c r="Q15" s="33" t="str">
         <f>Inventory!C68</f>
         <v>B--7-49324-O</v>
       </c>
-      <c r="R15" s="32" t="str">
+      <c r="R15" s="29" t="str">
         <f>Inventory!I68</f>
         <v>Gn-Gn-Wh-Or</v>
       </c>
@@ -10461,31 +10463,31 @@
         <f>Inventory!C124</f>
         <v>B--7-49320-AD</v>
       </c>
-      <c r="T15" s="32" t="str">
+      <c r="T15" s="29" t="str">
         <f>Inventory!I124</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
-      <c r="U15" s="44" t="str">
+      <c r="U15" s="41" t="str">
         <f>Inventory!C180</f>
         <v>B---49199-C</v>
       </c>
-      <c r="V15" s="45" t="str">
+      <c r="V15" s="42" t="str">
         <f>Inventory!I180</f>
         <v>__-Pr-Gn-Gn</v>
       </c>
-      <c r="W15" s="40" t="str">
+      <c r="W15" s="37" t="str">
         <f>Inventory!C236</f>
         <v/>
       </c>
-      <c r="X15" s="41" t="str">
+      <c r="X15" s="38" t="str">
         <f>Inventory!I236</f>
         <v>__-Bk-Gn-Gn</v>
       </c>
-      <c r="Y15" s="36" t="str">
+      <c r="Y15" s="33" t="str">
         <f>Inventory!C292</f>
         <v xml:space="preserve">B-1-0-49570-E </v>
       </c>
-      <c r="Z15" s="32" t="str">
+      <c r="Z15" s="29" t="str">
         <f>Inventory!I292</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
@@ -10493,7 +10495,7 @@
         <f>Inventory!C348</f>
         <v>B--7-49326-G</v>
       </c>
-      <c r="AB15" s="32" t="str">
+      <c r="AB15" s="29" t="str">
         <f>Inventory!I348</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -10507,35 +10509,35 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
       <c r="N16" s="12">
         <f>Inventory!B13</f>
         <v>16</v>
       </c>
-      <c r="O16" s="40" t="str">
+      <c r="O16" s="37" t="str">
         <f>Inventory!C13</f>
         <v/>
       </c>
-      <c r="P16" s="41" t="str">
+      <c r="P16" s="38" t="str">
         <f>Inventory!I13</f>
         <v>__-Bk-Gy-__</v>
       </c>
-      <c r="Q16" s="36" t="str">
+      <c r="Q16" s="33" t="str">
         <f>Inventory!C69</f>
         <v>B--7-49078-P</v>
       </c>
-      <c r="R16" s="32" t="str">
+      <c r="R16" s="29" t="str">
         <f>Inventory!I69</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -10543,31 +10545,31 @@
         <f>Inventory!C125</f>
         <v>B--7-49545-O</v>
       </c>
-      <c r="T16" s="32" t="str">
+      <c r="T16" s="29" t="str">
         <f>Inventory!I125</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
-      <c r="U16" s="44" t="str">
+      <c r="U16" s="41" t="str">
         <f>Inventory!C181</f>
         <v>B---48961-A</v>
       </c>
-      <c r="V16" s="45" t="str">
+      <c r="V16" s="42" t="str">
         <f>Inventory!I181</f>
         <v>__-Bk-Yl-Gn</v>
       </c>
-      <c r="W16" s="40" t="str">
+      <c r="W16" s="37" t="str">
         <f>Inventory!C237</f>
         <v/>
       </c>
-      <c r="X16" s="41" t="str">
+      <c r="X16" s="38" t="str">
         <f>Inventory!I237</f>
         <v>__-Bk-Yl-Gn</v>
       </c>
-      <c r="Y16" s="36" t="str">
+      <c r="Y16" s="33" t="str">
         <f>Inventory!C293</f>
         <v>B--7-49100-B</v>
       </c>
-      <c r="Z16" s="32" t="str">
+      <c r="Z16" s="29" t="str">
         <f>Inventory!I293</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -10575,7 +10577,7 @@
         <f>Inventory!C349</f>
         <v>B--7-49326-L</v>
       </c>
-      <c r="AB16" s="32" t="str">
+      <c r="AB16" s="29" t="str">
         <f>Inventory!I349</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -10589,35 +10591,35 @@
       </c>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="12">
         <f>Inventory!B14</f>
         <v>17</v>
       </c>
-      <c r="O17" s="40" t="str">
+      <c r="O17" s="37" t="str">
         <f>Inventory!C14</f>
         <v>B---49446-A</v>
       </c>
-      <c r="P17" s="41" t="str">
+      <c r="P17" s="38" t="str">
         <f>Inventory!I14</f>
         <v>__-Bk-Gy-__</v>
       </c>
-      <c r="Q17" s="36" t="str">
+      <c r="Q17" s="33" t="str">
         <f>Inventory!C70</f>
         <v>B--9-49354-AT</v>
       </c>
-      <c r="R17" s="32" t="str">
+      <c r="R17" s="29" t="str">
         <f>Inventory!I70</f>
         <v>__-__-__-Or</v>
       </c>
@@ -10625,31 +10627,31 @@
         <f>Inventory!C126</f>
         <v>B--8-49344-AP</v>
       </c>
-      <c r="T17" s="32" t="str">
+      <c r="T17" s="29" t="str">
         <f>Inventory!I126</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="U17" s="44" t="str">
+      <c r="U17" s="41" t="str">
         <f>Inventory!C182</f>
         <v>B---49192-D</v>
       </c>
-      <c r="V17" s="45" t="str">
+      <c r="V17" s="42" t="str">
         <f>Inventory!I182</f>
         <v>__-Bk-Or-Gn</v>
       </c>
-      <c r="W17" s="40" t="str">
+      <c r="W17" s="37" t="str">
         <f>Inventory!C238</f>
         <v/>
       </c>
-      <c r="X17" s="41" t="str">
+      <c r="X17" s="38" t="str">
         <f>Inventory!I238</f>
         <v>__-Bk-Or-Gn</v>
       </c>
-      <c r="Y17" s="36" t="str">
+      <c r="Y17" s="33" t="str">
         <f>Inventory!C294</f>
         <v>B--7-49107-AC</v>
       </c>
-      <c r="Z17" s="32" t="str">
+      <c r="Z17" s="29" t="str">
         <f>Inventory!I294</f>
         <v>Gn-Bu-Bu-Or</v>
       </c>
@@ -10657,7 +10659,7 @@
         <f>Inventory!C350</f>
         <v>B--7-49326-AB</v>
       </c>
-      <c r="AB17" s="32" t="str">
+      <c r="AB17" s="29" t="str">
         <f>Inventory!I350</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -10671,35 +10673,35 @@
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
       <c r="N18" s="12">
         <f>Inventory!B15</f>
         <v>18</v>
       </c>
-      <c r="O18" s="40" t="str">
+      <c r="O18" s="37" t="str">
         <f>Inventory!C15</f>
         <v/>
       </c>
-      <c r="P18" s="41" t="str">
+      <c r="P18" s="38" t="str">
         <f>Inventory!I15</f>
         <v>__-Bk-Pr-Gn</v>
       </c>
-      <c r="Q18" s="36" t="str">
+      <c r="Q18" s="33" t="str">
         <f>Inventory!C71</f>
         <v>B--8-49116-AU</v>
       </c>
-      <c r="R18" s="32" t="str">
+      <c r="R18" s="29" t="str">
         <f>Inventory!I71</f>
         <v>Gn-__-Gn-Or</v>
       </c>
@@ -10707,31 +10709,31 @@
         <f>Inventory!C127</f>
         <v>B--8-49344-AE</v>
       </c>
-      <c r="T18" s="32" t="str">
+      <c r="T18" s="29" t="str">
         <f>Inventory!I127</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="U18" s="44" t="str">
+      <c r="U18" s="41" t="str">
         <f>Inventory!C183</f>
         <v>B---48241-D</v>
       </c>
-      <c r="V18" s="45" t="str">
+      <c r="V18" s="42" t="str">
         <f>Inventory!I183</f>
         <v>__-Bk-Rd-Gn</v>
       </c>
-      <c r="W18" s="40" t="str">
+      <c r="W18" s="37" t="str">
         <f>Inventory!C239</f>
         <v/>
       </c>
-      <c r="X18" s="41" t="str">
+      <c r="X18" s="38" t="str">
         <f>Inventory!I239</f>
         <v>__-Bk-Rd-Gn</v>
       </c>
-      <c r="Y18" s="36" t="str">
+      <c r="Y18" s="33" t="str">
         <f>Inventory!C295</f>
         <v>B--7-49341-AA</v>
       </c>
-      <c r="Z18" s="32" t="str">
+      <c r="Z18" s="29" t="str">
         <f>Inventory!I295</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
@@ -10739,7 +10741,7 @@
         <f>Inventory!C351</f>
         <v>B--7-49326-D</v>
       </c>
-      <c r="AB18" s="32" t="str">
+      <c r="AB18" s="29" t="str">
         <f>Inventory!I351</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -10753,100 +10755,100 @@
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
       <c r="N19" s="12">
         <f>Inventory!B16</f>
         <v>19</v>
       </c>
-      <c r="O19" s="42" t="str">
+      <c r="O19" s="39" t="str">
         <f>Inventory!C16</f>
         <v>B---49207-A</v>
       </c>
-      <c r="P19" s="43" t="str">
+      <c r="P19" s="40" t="str">
         <f>Inventory!I16</f>
         <v>__-Bk-Pr-Gn</v>
       </c>
-      <c r="Q19" s="37" t="str">
+      <c r="Q19" s="34" t="str">
         <f>Inventory!C72</f>
         <v>B--7-49309-O</v>
       </c>
-      <c r="R19" s="33" t="str">
+      <c r="R19" s="30" t="str">
         <f>Inventory!I72</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
-      <c r="S19" s="29" t="str">
+      <c r="S19" s="26" t="str">
         <f>Inventory!C128</f>
         <v>B--7-49545-Z</v>
       </c>
-      <c r="T19" s="33" t="str">
+      <c r="T19" s="30" t="str">
         <f>Inventory!I128</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
-      <c r="U19" s="46" t="str">
+      <c r="U19" s="43" t="str">
         <f>Inventory!C184</f>
         <v>B---49184-B</v>
       </c>
-      <c r="V19" s="47" t="str">
+      <c r="V19" s="44" t="str">
         <f>Inventory!I184</f>
         <v>__-Bk-Bn-Or</v>
       </c>
-      <c r="W19" s="42" t="str">
+      <c r="W19" s="39" t="str">
         <f>Inventory!C240</f>
         <v/>
       </c>
-      <c r="X19" s="43" t="str">
+      <c r="X19" s="40" t="str">
         <f>Inventory!I240</f>
         <v>__-Bk-Bn-Gn</v>
       </c>
-      <c r="Y19" s="37" t="str">
+      <c r="Y19" s="34" t="str">
         <f>Inventory!C296</f>
         <v xml:space="preserve">B-1-0-49570-AC </v>
       </c>
-      <c r="Z19" s="33" t="str">
+      <c r="Z19" s="30" t="str">
         <f>Inventory!I296</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
-      <c r="AA19" s="29" t="str">
+      <c r="AA19" s="26" t="str">
         <f>Inventory!C352</f>
         <v>B--7-49326-M</v>
       </c>
-      <c r="AB19" s="33" t="str">
+      <c r="AB19" s="30" t="str">
         <f>Inventory!I352</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
-      <c r="AC19" s="29" t="str">
+      <c r="AC19" s="26" t="str">
         <f>Inventory!C408</f>
         <v>B--7-49576-AC</v>
       </c>
-      <c r="AD19" s="30" t="str">
+      <c r="AD19" s="27" t="str">
         <f>Inventory!I408</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
       <c r="N20" s="12">
         <f>Inventory!B17</f>
         <v>20</v>
@@ -10855,15 +10857,15 @@
         <f>Inventory!C17</f>
         <v>B--8-49116-T</v>
       </c>
-      <c r="P20" s="32" t="str">
+      <c r="P20" s="29" t="str">
         <f>Inventory!I17</f>
         <v>Gn-__-Gn-Or</v>
       </c>
-      <c r="Q20" s="36" t="str">
+      <c r="Q20" s="33" t="str">
         <f>Inventory!C73</f>
         <v>B--7-49321-L</v>
       </c>
-      <c r="R20" s="32" t="str">
+      <c r="R20" s="29" t="str">
         <f>Inventory!I73</f>
         <v>Gn-Gn-Bu-Or</v>
       </c>
@@ -10871,31 +10873,31 @@
         <f>Inventory!C129</f>
         <v>B--7-49320-AJ</v>
       </c>
-      <c r="T20" s="32" t="str">
+      <c r="T20" s="29" t="str">
         <f>Inventory!I129</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
-      <c r="U20" s="44" t="str">
+      <c r="U20" s="41" t="str">
         <f>Inventory!C185</f>
         <v/>
       </c>
-      <c r="V20" s="45" t="str">
+      <c r="V20" s="42" t="str">
         <f>Inventory!I185</f>
         <v>__-Bk-Bn-Gn</v>
       </c>
-      <c r="W20" s="40" t="str">
+      <c r="W20" s="37" t="str">
         <f>Inventory!C241</f>
         <v>B---49184-D</v>
       </c>
-      <c r="X20" s="41" t="str">
+      <c r="X20" s="38" t="str">
         <f>Inventory!I241</f>
         <v>__-Bk-Bn-Gn</v>
       </c>
-      <c r="Y20" s="36" t="str">
+      <c r="Y20" s="33" t="str">
         <f>Inventory!C297</f>
         <v>B--8-49109-AA</v>
       </c>
-      <c r="Z20" s="32" t="str">
+      <c r="Z20" s="29" t="str">
         <f>Inventory!I297</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
@@ -10903,7 +10905,7 @@
         <f>Inventory!C353</f>
         <v>B--7-49576-A</v>
       </c>
-      <c r="AB20" s="32" t="str">
+      <c r="AB20" s="29" t="str">
         <f>Inventory!I353</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -10917,18 +10919,18 @@
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
       <c r="N21" s="12">
         <f>Inventory!B18</f>
         <v>21</v>
@@ -10937,15 +10939,15 @@
         <f>Inventory!C18</f>
         <v>B--9-49354-G</v>
       </c>
-      <c r="P21" s="32" t="str">
+      <c r="P21" s="29" t="str">
         <f>Inventory!I18</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q21" s="36" t="str">
+      <c r="Q21" s="33" t="str">
         <f>Inventory!C74</f>
         <v>B--7-49078-O</v>
       </c>
-      <c r="R21" s="32" t="str">
+      <c r="R21" s="29" t="str">
         <f>Inventory!I74</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -10953,31 +10955,31 @@
         <f>Inventory!C130</f>
         <v>B--7-49545-AC</v>
       </c>
-      <c r="T21" s="32" t="str">
+      <c r="T21" s="29" t="str">
         <f>Inventory!I130</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
-      <c r="U21" s="44" t="str">
+      <c r="U21" s="41" t="str">
         <f>Inventory!C186</f>
         <v/>
       </c>
-      <c r="V21" s="45" t="str">
+      <c r="V21" s="42" t="str">
         <f>Inventory!I186</f>
         <v>__-Bk-Or-Gn</v>
       </c>
-      <c r="W21" s="40" t="str">
+      <c r="W21" s="37" t="str">
         <f>Inventory!C242</f>
         <v>B---49192-B</v>
       </c>
-      <c r="X21" s="41" t="str">
+      <c r="X21" s="38" t="str">
         <f>Inventory!I242</f>
         <v>__-Bk-Or-Gn</v>
       </c>
-      <c r="Y21" s="36" t="str">
+      <c r="Y21" s="33" t="str">
         <f>Inventory!C298</f>
         <v>B--7-49100-C</v>
       </c>
-      <c r="Z21" s="32" t="str">
+      <c r="Z21" s="29" t="str">
         <f>Inventory!I298</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -10985,7 +10987,7 @@
         <f>Inventory!C354</f>
         <v>B--7-49326-Z</v>
       </c>
-      <c r="AB21" s="32" t="str">
+      <c r="AB21" s="29" t="str">
         <f>Inventory!I354</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -10999,18 +11001,18 @@
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
       <c r="N22" s="12">
         <f>Inventory!B19</f>
         <v>22</v>
@@ -11019,15 +11021,15 @@
         <f>Inventory!C19</f>
         <v>B--7-49299-C</v>
       </c>
-      <c r="P22" s="32" t="str">
+      <c r="P22" s="29" t="str">
         <f>Inventory!I19</f>
         <v>__-Pr-__-Or</v>
       </c>
-      <c r="Q22" s="36" t="str">
+      <c r="Q22" s="33" t="str">
         <f>Inventory!C75</f>
         <v>B--7-49309-A</v>
       </c>
-      <c r="R22" s="32" t="str">
+      <c r="R22" s="29" t="str">
         <f>Inventory!I75</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -11035,31 +11037,31 @@
         <f>Inventory!C131</f>
         <v>B--7-49545-C</v>
       </c>
-      <c r="T22" s="32" t="str">
+      <c r="T22" s="29" t="str">
         <f>Inventory!I131</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
-      <c r="U22" s="44" t="str">
+      <c r="U22" s="41" t="str">
         <f>Inventory!C187</f>
         <v/>
       </c>
-      <c r="V22" s="45" t="str">
+      <c r="V22" s="42" t="str">
         <f>Inventory!I187</f>
         <v>__-Bk-Gn-Gn</v>
       </c>
-      <c r="W22" s="40" t="str">
+      <c r="W22" s="37" t="str">
         <f>Inventory!C243</f>
         <v>B---49199-A</v>
       </c>
-      <c r="X22" s="41" t="str">
+      <c r="X22" s="38" t="str">
         <f>Inventory!I243</f>
         <v>__-Bk-Gn-Gn</v>
       </c>
-      <c r="Y22" s="36" t="str">
+      <c r="Y22" s="33" t="str">
         <f>Inventory!C299</f>
         <v>B--7-49107-AG</v>
       </c>
-      <c r="Z22" s="32" t="str">
+      <c r="Z22" s="29" t="str">
         <f>Inventory!I299</f>
         <v>Gn-Bu-Bu-Or</v>
       </c>
@@ -11067,7 +11069,7 @@
         <f>Inventory!C355</f>
         <v>B--7-49576-AJ</v>
       </c>
-      <c r="AB22" s="32" t="str">
+      <c r="AB22" s="29" t="str">
         <f>Inventory!I355</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -11081,18 +11083,18 @@
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
       <c r="N23" s="12">
         <f>Inventory!B20</f>
         <v>23</v>
@@ -11101,15 +11103,15 @@
         <f>Inventory!C20</f>
         <v>B--8-49344-AM</v>
       </c>
-      <c r="P23" s="32" t="str">
+      <c r="P23" s="29" t="str">
         <f>Inventory!I20</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="Q23" s="36" t="str">
+      <c r="Q23" s="33" t="str">
         <f>Inventory!C76</f>
         <v>B--7-49323-O</v>
       </c>
-      <c r="R23" s="32" t="str">
+      <c r="R23" s="29" t="str">
         <f>Inventory!I76</f>
         <v>Gn-Gn-Gy-Or</v>
       </c>
@@ -11117,31 +11119,31 @@
         <f>Inventory!C132</f>
         <v>B--7-49320-V</v>
       </c>
-      <c r="T23" s="32" t="str">
+      <c r="T23" s="29" t="str">
         <f>Inventory!I132</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
-      <c r="U23" s="44" t="str">
+      <c r="U23" s="41" t="str">
         <f>Inventory!C188</f>
         <v/>
       </c>
-      <c r="V23" s="45" t="str">
+      <c r="V23" s="42" t="str">
         <f>Inventory!I188</f>
         <v>__-Bk-Rd-Gn</v>
       </c>
-      <c r="W23" s="40" t="str">
+      <c r="W23" s="37" t="str">
         <f>Inventory!C244</f>
         <v>B---48241-C</v>
       </c>
-      <c r="X23" s="41" t="str">
+      <c r="X23" s="38" t="str">
         <f>Inventory!I244</f>
         <v>__-Bk-Rd-Gn</v>
       </c>
-      <c r="Y23" s="36" t="str">
+      <c r="Y23" s="33" t="str">
         <f>Inventory!C300</f>
         <v>B--7-49100-AL</v>
       </c>
-      <c r="Z23" s="32" t="str">
+      <c r="Z23" s="29" t="str">
         <f>Inventory!I300</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -11149,7 +11151,7 @@
         <f>Inventory!C356</f>
         <v>B--7-49326-W</v>
       </c>
-      <c r="AB23" s="32" t="str">
+      <c r="AB23" s="29" t="str">
         <f>Inventory!I356</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -11163,18 +11165,18 @@
       </c>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
       <c r="N24" s="12">
         <f>Inventory!B21</f>
         <v>24</v>
@@ -11183,15 +11185,15 @@
         <f>Inventory!C21</f>
         <v>B--9-49354-L</v>
       </c>
-      <c r="P24" s="32" t="str">
+      <c r="P24" s="29" t="str">
         <f>Inventory!I21</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q24" s="36" t="str">
+      <c r="Q24" s="33" t="str">
         <f>Inventory!C77</f>
         <v>B--7-49078-AC</v>
       </c>
-      <c r="R24" s="32" t="str">
+      <c r="R24" s="29" t="str">
         <f>Inventory!I77</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -11199,7 +11201,7 @@
         <f>Inventory!C133</f>
         <v>B--7-49545-L</v>
       </c>
-      <c r="T24" s="32" t="str">
+      <c r="T24" s="29" t="str">
         <f>Inventory!I133</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -11215,15 +11217,15 @@
         <f>Inventory!C245</f>
         <v xml:space="preserve">B-1-0-49570-F </v>
       </c>
-      <c r="X24" s="32" t="str">
+      <c r="X24" s="29" t="str">
         <f>Inventory!I245</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
-      <c r="Y24" s="36" t="str">
+      <c r="Y24" s="33" t="str">
         <f>Inventory!C301</f>
         <v>B--7-49107-T</v>
       </c>
-      <c r="Z24" s="32" t="str">
+      <c r="Z24" s="29" t="str">
         <f>Inventory!I301</f>
         <v>Gn-Bu-Bu-Or</v>
       </c>
@@ -11231,7 +11233,7 @@
         <f>Inventory!C357</f>
         <v>B--7-49576-D</v>
       </c>
-      <c r="AB24" s="32" t="str">
+      <c r="AB24" s="29" t="str">
         <f>Inventory!I357</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -11245,18 +11247,18 @@
       </c>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
       <c r="N25" s="12">
         <f>Inventory!B22</f>
         <v>25</v>
@@ -11265,15 +11267,15 @@
         <f>Inventory!C22</f>
         <v>B--8-49116-E</v>
       </c>
-      <c r="P25" s="32" t="str">
+      <c r="P25" s="29" t="str">
         <f>Inventory!I22</f>
         <v>Gn-__-Gn-Or</v>
       </c>
-      <c r="Q25" s="36" t="str">
+      <c r="Q25" s="33" t="str">
         <f>Inventory!C78</f>
         <v>B--7-49309-AG</v>
       </c>
-      <c r="R25" s="32" t="str">
+      <c r="R25" s="29" t="str">
         <f>Inventory!I78</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -11281,7 +11283,7 @@
         <f>Inventory!C134</f>
         <v>B--7-49545-T</v>
       </c>
-      <c r="T25" s="32" t="str">
+      <c r="T25" s="29" t="str">
         <f>Inventory!I134</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -11297,15 +11299,15 @@
         <f>Inventory!C246</f>
         <v>B--7-49333-M</v>
       </c>
-      <c r="X25" s="32" t="str">
+      <c r="X25" s="29" t="str">
         <f>Inventory!I246</f>
         <v>Gn-Bu-Or-Or</v>
       </c>
-      <c r="Y25" s="36" t="str">
+      <c r="Y25" s="33" t="str">
         <f>Inventory!C302</f>
         <v>B--7-49341-F</v>
       </c>
-      <c r="Z25" s="32" t="str">
+      <c r="Z25" s="29" t="str">
         <f>Inventory!I302</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
@@ -11313,7 +11315,7 @@
         <f>Inventory!C358</f>
         <v>B--7-49326-AG</v>
       </c>
-      <c r="AB25" s="32" t="str">
+      <c r="AB25" s="29" t="str">
         <f>Inventory!I358</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -11327,18 +11329,18 @@
       </c>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="12">
         <f>Inventory!B23</f>
         <v>26</v>
@@ -11347,15 +11349,15 @@
         <f>Inventory!C23</f>
         <v>B--7-49064-E</v>
       </c>
-      <c r="P26" s="32" t="str">
+      <c r="P26" s="29" t="str">
         <f>Inventory!I23</f>
         <v>__-__-Bk-Or</v>
       </c>
-      <c r="Q26" s="36" t="str">
+      <c r="Q26" s="33" t="str">
         <f>Inventory!C79</f>
         <v>B--7-49086-C</v>
       </c>
-      <c r="R26" s="32" t="str">
+      <c r="R26" s="29" t="str">
         <f>Inventory!I79</f>
         <v>Gn-Gn-Pr-Or</v>
       </c>
@@ -11363,7 +11365,7 @@
         <f>Inventory!C135</f>
         <v>B--7-49319-G</v>
       </c>
-      <c r="T26" s="32" t="str">
+      <c r="T26" s="29" t="str">
         <f>Inventory!I135</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
@@ -11379,15 +11381,15 @@
         <f>Inventory!C247</f>
         <v>B--7-49333-J</v>
       </c>
-      <c r="X26" s="32" t="str">
+      <c r="X26" s="29" t="str">
         <f>Inventory!I247</f>
         <v>Gn-Bu-Or-Or</v>
       </c>
-      <c r="Y26" s="36" t="str">
+      <c r="Y26" s="33" t="str">
         <f>Inventory!C303</f>
         <v>B--7-49107-M</v>
       </c>
-      <c r="Z26" s="32" t="str">
+      <c r="Z26" s="29" t="str">
         <f>Inventory!I303</f>
         <v>Gn-Bu-Bu-Or</v>
       </c>
@@ -11395,7 +11397,7 @@
         <f>Inventory!C359</f>
         <v>B--7-49326-K</v>
       </c>
-      <c r="AB26" s="32" t="str">
+      <c r="AB26" s="29" t="str">
         <f>Inventory!I359</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -11409,18 +11411,18 @@
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
       <c r="N27" s="12">
         <f>Inventory!B24</f>
         <v>27</v>
@@ -11429,15 +11431,15 @@
         <f>Inventory!C24</f>
         <v>B--7-49299-I</v>
       </c>
-      <c r="P27" s="32" t="str">
+      <c r="P27" s="29" t="str">
         <f>Inventory!I24</f>
         <v>__-Pr-Gy-Or</v>
       </c>
-      <c r="Q27" s="36" t="str">
+      <c r="Q27" s="33" t="str">
         <f>Inventory!C80</f>
         <v>B--7-49078-E</v>
       </c>
-      <c r="R27" s="32" t="str">
+      <c r="R27" s="29" t="str">
         <f>Inventory!I80</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -11445,7 +11447,7 @@
         <f>Inventory!C136</f>
         <v>B--7-49545-G</v>
       </c>
-      <c r="T27" s="32" t="str">
+      <c r="T27" s="29" t="str">
         <f>Inventory!I136</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -11461,15 +11463,15 @@
         <f>Inventory!C248</f>
         <v xml:space="preserve">B-1-0-49570-B </v>
       </c>
-      <c r="X27" s="32" t="str">
+      <c r="X27" s="29" t="str">
         <f>Inventory!I248</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
-      <c r="Y27" s="36" t="str">
+      <c r="Y27" s="33" t="str">
         <f>Inventory!C304</f>
         <v>B--7-49341-M</v>
       </c>
-      <c r="Z27" s="32" t="str">
+      <c r="Z27" s="29" t="str">
         <f>Inventory!I304</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
@@ -11477,7 +11479,7 @@
         <f>Inventory!C360</f>
         <v>B--7-49326-F</v>
       </c>
-      <c r="AB27" s="32" t="str">
+      <c r="AB27" s="29" t="str">
         <f>Inventory!I360</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
@@ -11491,18 +11493,18 @@
       </c>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
       <c r="N28" s="12">
         <f>Inventory!B25</f>
         <v>28</v>
@@ -11511,15 +11513,15 @@
         <f>Inventory!C25</f>
         <v>B--9-49354-O</v>
       </c>
-      <c r="P28" s="32" t="str">
+      <c r="P28" s="29" t="str">
         <f>Inventory!I25</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q28" s="36" t="str">
+      <c r="Q28" s="33" t="str">
         <f>Inventory!C81</f>
         <v>B--7-49309-AM</v>
       </c>
-      <c r="R28" s="32" t="str">
+      <c r="R28" s="29" t="str">
         <f>Inventory!I81</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -11527,7 +11529,7 @@
         <f>Inventory!C137</f>
         <v>B--7-49545-E</v>
       </c>
-      <c r="T28" s="32" t="str">
+      <c r="T28" s="29" t="str">
         <f>Inventory!I137</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -11543,15 +11545,15 @@
         <f>Inventory!C249</f>
         <v>B--4-49067-D</v>
       </c>
-      <c r="X28" s="32" t="str">
+      <c r="X28" s="29" t="str">
         <f>Inventory!I249</f>
         <v>Gn-Bk-Rd-Or</v>
       </c>
-      <c r="Y28" s="36" t="str">
+      <c r="Y28" s="33" t="str">
         <f>Inventory!C305</f>
         <v>B--7-49107-P</v>
       </c>
-      <c r="Z28" s="32" t="str">
+      <c r="Z28" s="29" t="str">
         <f>Inventory!I305</f>
         <v>Gn-Bu-Bu-Or</v>
       </c>
@@ -11559,7 +11561,7 @@
         <f>Inventory!C361</f>
         <v>B--7-49576-T</v>
       </c>
-      <c r="AB28" s="32" t="str">
+      <c r="AB28" s="29" t="str">
         <f>Inventory!I361</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -11573,18 +11575,18 @@
       </c>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
       <c r="N29" s="12">
         <f>Inventory!B26</f>
         <v>29</v>
@@ -11593,15 +11595,15 @@
         <f>Inventory!C26</f>
         <v>B--8-49344-AB</v>
       </c>
-      <c r="P29" s="32" t="str">
+      <c r="P29" s="29" t="str">
         <f>Inventory!I26</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="Q29" s="36" t="str">
+      <c r="Q29" s="33" t="str">
         <f>Inventory!C82</f>
         <v>B--7-49324-T</v>
       </c>
-      <c r="R29" s="32" t="str">
+      <c r="R29" s="29" t="str">
         <f>Inventory!I82</f>
         <v>Gn-Gn-Wh-Or</v>
       </c>
@@ -11609,7 +11611,7 @@
         <f>Inventory!C138</f>
         <v>B--7-49319-Z</v>
       </c>
-      <c r="T29" s="32" t="str">
+      <c r="T29" s="29" t="str">
         <f>Inventory!I138</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
@@ -11625,15 +11627,15 @@
         <f>Inventory!C250</f>
         <v>B--7-49100-A</v>
       </c>
-      <c r="X29" s="32" t="str">
+      <c r="X29" s="29" t="str">
         <f>Inventory!I250</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
-      <c r="Y29" s="36" t="str">
+      <c r="Y29" s="33" t="str">
         <f>Inventory!C306</f>
         <v>B--7-49107-AD</v>
       </c>
-      <c r="Z29" s="32" t="str">
+      <c r="Z29" s="29" t="str">
         <f>Inventory!I306</f>
         <v>Gn-Bu-Bu-Or</v>
       </c>
@@ -11641,7 +11643,7 @@
         <f>Inventory!C362</f>
         <v xml:space="preserve">B-1-0-49570-AG </v>
       </c>
-      <c r="AB29" s="32" t="str">
+      <c r="AB29" s="29" t="str">
         <f>Inventory!I362</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
@@ -11655,18 +11657,18 @@
       </c>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
       <c r="N30" s="12">
         <f>Inventory!B27</f>
         <v>30</v>
@@ -11675,15 +11677,15 @@
         <f>Inventory!C27</f>
         <v>B--7-49299-O</v>
       </c>
-      <c r="P30" s="32" t="str">
+      <c r="P30" s="29" t="str">
         <f>Inventory!I27</f>
         <v>__-Pr-Gy-Or</v>
       </c>
-      <c r="Q30" s="36" t="str">
+      <c r="Q30" s="33" t="str">
         <f>Inventory!C83</f>
         <v>B--7-49078-H</v>
       </c>
-      <c r="R30" s="32" t="str">
+      <c r="R30" s="29" t="str">
         <f>Inventory!I83</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -11691,7 +11693,7 @@
         <f>Inventory!C139</f>
         <v>B--7-49545-H</v>
       </c>
-      <c r="T30" s="32" t="str">
+      <c r="T30" s="29" t="str">
         <f>Inventory!I139</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -11707,15 +11709,15 @@
         <f>Inventory!C251</f>
         <v>B--7-49100-AO</v>
       </c>
-      <c r="X30" s="32" t="str">
+      <c r="X30" s="29" t="str">
         <f>Inventory!I251</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
-      <c r="Y30" s="36" t="str">
+      <c r="Y30" s="33" t="str">
         <f>Inventory!C307</f>
         <v>B--7-49341-V</v>
       </c>
-      <c r="Z30" s="32" t="str">
+      <c r="Z30" s="29" t="str">
         <f>Inventory!I307</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
@@ -11723,7 +11725,7 @@
         <f>Inventory!C363</f>
         <v>B--8-49109-AJ</v>
       </c>
-      <c r="AB30" s="32" t="str">
+      <c r="AB30" s="29" t="str">
         <f>Inventory!I363</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
@@ -11737,18 +11739,18 @@
       </c>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
       <c r="N31" s="12">
         <f>Inventory!B28</f>
         <v>31</v>
@@ -11757,15 +11759,15 @@
         <f>Inventory!C28</f>
         <v>B--9-49354-AB</v>
       </c>
-      <c r="P31" s="32" t="str">
+      <c r="P31" s="29" t="str">
         <f>Inventory!I28</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q31" s="36" t="str">
+      <c r="Q31" s="33" t="str">
         <f>Inventory!C84</f>
         <v>B--7-49309-V</v>
       </c>
-      <c r="R31" s="32" t="str">
+      <c r="R31" s="29" t="str">
         <f>Inventory!I84</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -11773,7 +11775,7 @@
         <f>Inventory!C140</f>
         <v>B--7-49545-AA</v>
       </c>
-      <c r="T31" s="32" t="str">
+      <c r="T31" s="29" t="str">
         <f>Inventory!I140</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -11789,15 +11791,15 @@
         <f>Inventory!C252</f>
         <v>B-1-0-49570-AF</v>
       </c>
-      <c r="X31" s="32" t="str">
+      <c r="X31" s="29" t="str">
         <f>Inventory!I252</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
-      <c r="Y31" s="36" t="str">
+      <c r="Y31" s="33" t="str">
         <f>Inventory!C308</f>
         <v>B--7-49100-I</v>
       </c>
-      <c r="Z31" s="32" t="str">
+      <c r="Z31" s="29" t="str">
         <f>Inventory!I308</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -11805,7 +11807,7 @@
         <f>Inventory!C364</f>
         <v xml:space="preserve">B-1-0-49570-S </v>
       </c>
-      <c r="AB31" s="32" t="str">
+      <c r="AB31" s="29" t="str">
         <f>Inventory!I364</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
@@ -11819,100 +11821,100 @@
       </c>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
       <c r="N32" s="12">
         <f>Inventory!B29</f>
         <v>32</v>
       </c>
-      <c r="O32" s="28" t="str">
+      <c r="O32" s="25" t="str">
         <f>Inventory!C29</f>
         <v>B--7-49299-AA</v>
       </c>
-      <c r="P32" s="33" t="str">
+      <c r="P32" s="30" t="str">
         <f>Inventory!I29</f>
         <v>__-Pr-Gy-Or</v>
       </c>
-      <c r="Q32" s="37" t="str">
+      <c r="Q32" s="34" t="str">
         <f>Inventory!C85</f>
         <v>B--7-49321-A</v>
       </c>
-      <c r="R32" s="33" t="str">
+      <c r="R32" s="30" t="str">
         <f>Inventory!I85</f>
         <v>Gn-Gn-Bu-Or</v>
       </c>
-      <c r="S32" s="29" t="str">
+      <c r="S32" s="26" t="str">
         <f>Inventory!C141</f>
         <v>B--7-49319-M</v>
       </c>
-      <c r="T32" s="33" t="str">
+      <c r="T32" s="30" t="str">
         <f>Inventory!I141</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
-      <c r="U32" s="29" t="str">
+      <c r="U32" s="26" t="str">
         <f>Inventory!C197</f>
         <v>B--8-49116-AO</v>
       </c>
-      <c r="V32" s="30" t="str">
+      <c r="V32" s="27" t="str">
         <f>Inventory!I197</f>
         <v>Gn-Gy-Gn-Or</v>
       </c>
-      <c r="W32" s="28" t="str">
+      <c r="W32" s="25" t="str">
         <f>Inventory!C253</f>
         <v>B--7-49536-AF</v>
       </c>
-      <c r="X32" s="33" t="str">
+      <c r="X32" s="30" t="str">
         <f>Inventory!I253</f>
         <v>__-Pr-Gn-Or</v>
       </c>
-      <c r="Y32" s="37" t="str">
+      <c r="Y32" s="34" t="str">
         <f>Inventory!C309</f>
         <v>B--7-49100-R</v>
       </c>
-      <c r="Z32" s="33" t="str">
+      <c r="Z32" s="30" t="str">
         <f>Inventory!I309</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
-      <c r="AA32" s="29" t="str">
+      <c r="AA32" s="26" t="str">
         <f>Inventory!C365</f>
         <v xml:space="preserve">B-1-0-49570-AJ </v>
       </c>
-      <c r="AB32" s="33" t="str">
+      <c r="AB32" s="30" t="str">
         <f>Inventory!I365</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
-      <c r="AC32" s="29" t="str">
+      <c r="AC32" s="26" t="str">
         <f>Inventory!C421</f>
         <v>B--8-49109-Y</v>
       </c>
-      <c r="AD32" s="30" t="str">
+      <c r="AD32" s="27" t="str">
         <f>Inventory!I421</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
       <c r="N33" s="12">
         <f>Inventory!B30</f>
         <v>39</v>
@@ -11921,15 +11923,15 @@
         <f>Inventory!C30</f>
         <v>B--9-49354-J</v>
       </c>
-      <c r="P33" s="32" t="str">
+      <c r="P33" s="29" t="str">
         <f>Inventory!I30</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q33" s="36" t="str">
+      <c r="Q33" s="33" t="str">
         <f>Inventory!C86</f>
         <v>B--7-49078-AB</v>
       </c>
-      <c r="R33" s="32" t="str">
+      <c r="R33" s="29" t="str">
         <f>Inventory!I86</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -11937,7 +11939,7 @@
         <f>Inventory!C142</f>
         <v>B--7-49309-AJ</v>
       </c>
-      <c r="T33" s="32" t="str">
+      <c r="T33" s="29" t="str">
         <f>Inventory!I142</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -11953,15 +11955,15 @@
         <f>Inventory!C254</f>
         <v>B-1-0-49332-AF</v>
       </c>
-      <c r="X33" s="32" t="str">
+      <c r="X33" s="29" t="str">
         <f>Inventory!I254</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
-      <c r="Y33" s="36" t="str">
+      <c r="Y33" s="33" t="str">
         <f>Inventory!C310</f>
         <v>B--8-49350-A</v>
       </c>
-      <c r="Z33" s="32" t="str">
+      <c r="Z33" s="29" t="str">
         <f>Inventory!I310</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -11969,7 +11971,7 @@
         <f>Inventory!C366</f>
         <v>B-1-0-49332-B</v>
       </c>
-      <c r="AB33" s="32" t="str">
+      <c r="AB33" s="29" t="str">
         <f>Inventory!I366</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
@@ -11983,18 +11985,18 @@
       </c>
     </row>
     <row r="34" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
       <c r="N34" s="12">
         <f>Inventory!B31</f>
         <v>40</v>
@@ -12003,15 +12005,15 @@
         <f>Inventory!C31</f>
         <v>B--8-49344-I</v>
       </c>
-      <c r="P34" s="32" t="str">
+      <c r="P34" s="29" t="str">
         <f>Inventory!I31</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="Q34" s="36" t="str">
+      <c r="Q34" s="33" t="str">
         <f>Inventory!C87</f>
         <v>B--7-49309-D</v>
       </c>
-      <c r="R34" s="32" t="str">
+      <c r="R34" s="29" t="str">
         <f>Inventory!I87</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -12019,7 +12021,7 @@
         <f>Inventory!C143</f>
         <v>B--7-49550-B</v>
       </c>
-      <c r="T34" s="32" t="str">
+      <c r="T34" s="29" t="str">
         <f>Inventory!I143</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -12035,15 +12037,15 @@
         <f>Inventory!C255</f>
         <v>B--7-49100-E</v>
       </c>
-      <c r="X34" s="32" t="str">
+      <c r="X34" s="29" t="str">
         <f>Inventory!I255</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
-      <c r="Y34" s="36" t="str">
+      <c r="Y34" s="33" t="str">
         <f>Inventory!C311</f>
         <v>B--9-49334-P</v>
       </c>
-      <c r="Z34" s="32" t="str">
+      <c r="Z34" s="29" t="str">
         <f>Inventory!I311</f>
         <v>__-__-__-Or</v>
       </c>
@@ -12051,7 +12053,7 @@
         <f>Inventory!C367</f>
         <v>B--7-49333-AG</v>
       </c>
-      <c r="AB34" s="32" t="str">
+      <c r="AB34" s="29" t="str">
         <f>Inventory!I367</f>
         <v>Gn-Bu-Or-Or</v>
       </c>
@@ -12065,18 +12067,18 @@
       </c>
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
       <c r="N35" s="12">
         <f>Inventory!B32</f>
         <v>41</v>
@@ -12085,15 +12087,15 @@
         <f>Inventory!C32</f>
         <v>B--9-49354-A</v>
       </c>
-      <c r="P35" s="32" t="str">
+      <c r="P35" s="29" t="str">
         <f>Inventory!I32</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q35" s="36" t="str">
+      <c r="Q35" s="33" t="str">
         <f>Inventory!C88</f>
         <v>B--7-49323-I</v>
       </c>
-      <c r="R35" s="32" t="str">
+      <c r="R35" s="29" t="str">
         <f>Inventory!I88</f>
         <v>Gn-Gn-Gy-Or</v>
       </c>
@@ -12101,7 +12103,7 @@
         <f>Inventory!C144</f>
         <v>B--7-49319-AH</v>
       </c>
-      <c r="T35" s="32" t="str">
+      <c r="T35" s="29" t="str">
         <f>Inventory!I144</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
@@ -12117,15 +12119,15 @@
         <f>Inventory!C256</f>
         <v>B-1-0-49332-V</v>
       </c>
-      <c r="X35" s="32" t="str">
+      <c r="X35" s="29" t="str">
         <f>Inventory!I256</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
-      <c r="Y35" s="36" t="str">
+      <c r="Y35" s="33" t="str">
         <f>Inventory!C312</f>
         <v>B--9-49334-U</v>
       </c>
-      <c r="Z35" s="32" t="str">
+      <c r="Z35" s="29" t="str">
         <f>Inventory!I312</f>
         <v>__-__-__-Or</v>
       </c>
@@ -12133,7 +12135,7 @@
         <f>Inventory!C368</f>
         <v>B--7-49100-O</v>
       </c>
-      <c r="AB35" s="32" t="str">
+      <c r="AB35" s="29" t="str">
         <f>Inventory!I368</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -12147,18 +12149,18 @@
       </c>
     </row>
     <row r="36" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
       <c r="N36" s="12">
         <f>Inventory!B33</f>
         <v>42</v>
@@ -12167,15 +12169,15 @@
         <f>Inventory!C33</f>
         <v>B--9-49354-S</v>
       </c>
-      <c r="P36" s="32" t="str">
+      <c r="P36" s="29" t="str">
         <f>Inventory!I33</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q36" s="36" t="str">
+      <c r="Q36" s="33" t="str">
         <f>Inventory!C89</f>
         <v>B--7-49078-I</v>
       </c>
-      <c r="R36" s="32" t="str">
+      <c r="R36" s="29" t="str">
         <f>Inventory!I89</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -12183,7 +12185,7 @@
         <f>Inventory!C145</f>
         <v>B--7-49309-I</v>
       </c>
-      <c r="T36" s="32" t="str">
+      <c r="T36" s="29" t="str">
         <f>Inventory!I145</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -12199,15 +12201,15 @@
         <f>Inventory!C257</f>
         <v>B--7-49100-W</v>
       </c>
-      <c r="X36" s="32" t="str">
+      <c r="X36" s="29" t="str">
         <f>Inventory!I257</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
-      <c r="Y36" s="36" t="str">
+      <c r="Y36" s="33" t="str">
         <f>Inventory!C313</f>
         <v>B--7-49070-D</v>
       </c>
-      <c r="Z36" s="32" t="str">
+      <c r="Z36" s="29" t="str">
         <f>Inventory!I313</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -12215,7 +12217,7 @@
         <f>Inventory!C369</f>
         <v>B-1-0-49332-AF</v>
       </c>
-      <c r="AB36" s="32" t="str">
+      <c r="AB36" s="29" t="str">
         <f>Inventory!I369</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
@@ -12229,18 +12231,18 @@
       </c>
     </row>
     <row r="37" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
       <c r="N37" s="12">
         <f>Inventory!B34</f>
         <v>43</v>
@@ -12249,15 +12251,15 @@
         <f>Inventory!C34</f>
         <v>B--8-49117-R</v>
       </c>
-      <c r="P37" s="32" t="str">
+      <c r="P37" s="29" t="str">
         <f>Inventory!I34</f>
         <v>Gn-__-Gn-Or</v>
       </c>
-      <c r="Q37" s="36" t="str">
+      <c r="Q37" s="33" t="str">
         <f>Inventory!C90</f>
         <v>B--7-49309-AI</v>
       </c>
-      <c r="R37" s="32" t="str">
+      <c r="R37" s="29" t="str">
         <f>Inventory!I90</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -12265,7 +12267,7 @@
         <f>Inventory!C146</f>
         <v>B--7-49309-H</v>
       </c>
-      <c r="T37" s="32" t="str">
+      <c r="T37" s="29" t="str">
         <f>Inventory!I146</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -12281,15 +12283,15 @@
         <f>Inventory!C258</f>
         <v>B--7-49100-AF</v>
       </c>
-      <c r="X37" s="32" t="str">
+      <c r="X37" s="29" t="str">
         <f>Inventory!I258</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
-      <c r="Y37" s="36" t="str">
+      <c r="Y37" s="33" t="str">
         <f>Inventory!C314</f>
         <v>B--7-49536-AB</v>
       </c>
-      <c r="Z37" s="32" t="str">
+      <c r="Z37" s="29" t="str">
         <f>Inventory!I314</f>
         <v>__-Pr-Gy-Or</v>
       </c>
@@ -12297,7 +12299,7 @@
         <f>Inventory!C370</f>
         <v>B--7-49333-AB</v>
       </c>
-      <c r="AB37" s="32" t="str">
+      <c r="AB37" s="29" t="str">
         <f>Inventory!I370</f>
         <v>Gn-Bu-Or-Or</v>
       </c>
@@ -12309,10 +12311,10 @@
         <f>Inventory!I426</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
-      <c r="AF37" s="51" t="s">
+      <c r="AF37" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="AG37" s="78" t="s">
+      <c r="AG37" s="74" t="s">
         <v>75</v>
       </c>
       <c r="AH37" t="s">
@@ -12323,18 +12325,18 @@
       </c>
     </row>
     <row r="38" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
       <c r="N38" s="12">
         <f>Inventory!B35</f>
         <v>44</v>
@@ -12343,15 +12345,15 @@
         <f>Inventory!C35</f>
         <v>B--7-49299-AR</v>
       </c>
-      <c r="P38" s="32" t="str">
+      <c r="P38" s="29" t="str">
         <f>Inventory!I35</f>
         <v>__-Pr-Gy-Or</v>
       </c>
-      <c r="Q38" s="36" t="str">
+      <c r="Q38" s="33" t="str">
         <f>Inventory!C91</f>
         <v>B--7-49086-K</v>
       </c>
-      <c r="R38" s="32" t="str">
+      <c r="R38" s="29" t="str">
         <f>Inventory!I91</f>
         <v>Gn-Gn-Pr-Or</v>
       </c>
@@ -12359,7 +12361,7 @@
         <f>Inventory!C147</f>
         <v>B--7-49319-L</v>
       </c>
-      <c r="T38" s="32" t="str">
+      <c r="T38" s="29" t="str">
         <f>Inventory!I147</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
@@ -12375,15 +12377,15 @@
         <f>Inventory!C259</f>
         <v>B--7-49326-U</v>
       </c>
-      <c r="X38" s="32" t="str">
+      <c r="X38" s="29" t="str">
         <f>Inventory!I259</f>
         <v>Gn-Bu-Bn-Or</v>
       </c>
-      <c r="Y38" s="36" t="str">
+      <c r="Y38" s="33" t="str">
         <f>Inventory!C315</f>
         <v>B--7-49100-J</v>
       </c>
-      <c r="Z38" s="32" t="str">
+      <c r="Z38" s="29" t="str">
         <f>Inventory!I315</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -12391,7 +12393,7 @@
         <f>Inventory!C371</f>
         <v>B-1-0-49332-I</v>
       </c>
-      <c r="AB38" s="32" t="str">
+      <c r="AB38" s="29" t="str">
         <f>Inventory!I371</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
@@ -12403,10 +12405,10 @@
         <f>Inventory!I427</f>
         <v/>
       </c>
-      <c r="AF38" s="50" t="s">
+      <c r="AF38" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="AG38" s="78" t="s">
+      <c r="AG38" s="74" t="s">
         <v>75</v>
       </c>
       <c r="AH38" t="s">
@@ -12417,18 +12419,18 @@
       </c>
     </row>
     <row r="39" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
       <c r="N39" s="12">
         <f>Inventory!B36</f>
         <v>45</v>
@@ -12437,15 +12439,15 @@
         <f>Inventory!C36</f>
         <v>B--9-49354-AJ</v>
       </c>
-      <c r="P39" s="32" t="str">
+      <c r="P39" s="29" t="str">
         <f>Inventory!I36</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q39" s="36" t="str">
+      <c r="Q39" s="33" t="str">
         <f>Inventory!C92</f>
         <v>B--7-49078-N</v>
       </c>
-      <c r="R39" s="32" t="str">
+      <c r="R39" s="29" t="str">
         <f>Inventory!I92</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -12453,7 +12455,7 @@
         <f>Inventory!C148</f>
         <v>B--7-49309-AC</v>
       </c>
-      <c r="T39" s="32" t="str">
+      <c r="T39" s="29" t="str">
         <f>Inventory!I148</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -12469,15 +12471,15 @@
         <f>Inventory!C260</f>
         <v>B--7-49100-A</v>
       </c>
-      <c r="X39" s="32" t="str">
+      <c r="X39" s="29" t="str">
         <f>Inventory!I260</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
-      <c r="Y39" s="36" t="str">
+      <c r="Y39" s="33" t="str">
         <f>Inventory!C316</f>
         <v>B--7-49107-AA</v>
       </c>
-      <c r="Z39" s="32" t="str">
+      <c r="Z39" s="29" t="str">
         <f>Inventory!I316</f>
         <v>Gn-Bu-Bu-Or</v>
       </c>
@@ -12485,7 +12487,7 @@
         <f>Inventory!C372</f>
         <v>B--7-49100-P</v>
       </c>
-      <c r="AB39" s="32" t="str">
+      <c r="AB39" s="29" t="str">
         <f>Inventory!I372</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -12497,10 +12499,10 @@
         <f>Inventory!I428</f>
         <v/>
       </c>
-      <c r="AF39" s="49" t="s">
+      <c r="AF39" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="AG39" s="78" t="s">
+      <c r="AG39" s="74" t="s">
         <v>75</v>
       </c>
       <c r="AH39" t="s">
@@ -12511,18 +12513,18 @@
       </c>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="12">
         <f>Inventory!B37</f>
         <v>46</v>
@@ -12531,15 +12533,15 @@
         <f>Inventory!C37</f>
         <v>B--7-49299-AO</v>
       </c>
-      <c r="P40" s="32" t="str">
+      <c r="P40" s="29" t="str">
         <f>Inventory!I37</f>
         <v>__-Pr-Gy-Or</v>
       </c>
-      <c r="Q40" s="36" t="str">
+      <c r="Q40" s="33" t="str">
         <f>Inventory!C93</f>
         <v>B--7-49309-W</v>
       </c>
-      <c r="R40" s="32" t="str">
+      <c r="R40" s="29" t="str">
         <f>Inventory!I93</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -12547,7 +12549,7 @@
         <f>Inventory!C149</f>
         <v>B--7-49309-AI</v>
       </c>
-      <c r="T40" s="32" t="str">
+      <c r="T40" s="29" t="str">
         <f>Inventory!I149</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -12563,15 +12565,15 @@
         <f>Inventory!C261</f>
         <v>B--7-49100-AA</v>
       </c>
-      <c r="X40" s="32" t="str">
+      <c r="X40" s="29" t="str">
         <f>Inventory!I261</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
-      <c r="Y40" s="36" t="str">
+      <c r="Y40" s="33" t="str">
         <f>Inventory!C317</f>
         <v>B--7-49107-K</v>
       </c>
-      <c r="Z40" s="32" t="str">
+      <c r="Z40" s="29" t="str">
         <f>Inventory!I317</f>
         <v>Gn-Bu-Bu-Or</v>
       </c>
@@ -12579,7 +12581,7 @@
         <f>Inventory!C373</f>
         <v>B--7-49100-G</v>
       </c>
-      <c r="AB40" s="32" t="str">
+      <c r="AB40" s="29" t="str">
         <f>Inventory!I373</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -12591,10 +12593,10 @@
         <f>Inventory!I429</f>
         <v/>
       </c>
-      <c r="AF40" s="52" t="s">
+      <c r="AF40" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="AG40" s="78" t="s">
+      <c r="AG40" s="74" t="s">
         <v>75</v>
       </c>
       <c r="AH40" t="s">
@@ -12605,18 +12607,18 @@
       </c>
     </row>
     <row r="41" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
       <c r="N41" s="12">
         <f>Inventory!B38</f>
         <v>47</v>
@@ -12625,15 +12627,15 @@
         <f>Inventory!C38</f>
         <v>B--7-49299-AV</v>
       </c>
-      <c r="P41" s="32" t="str">
+      <c r="P41" s="29" t="str">
         <f>Inventory!I38</f>
         <v>__-Pr-Gy-Or</v>
       </c>
-      <c r="Q41" s="36" t="str">
+      <c r="Q41" s="33" t="str">
         <f>Inventory!C94</f>
         <v>B--7-49324-K</v>
       </c>
-      <c r="R41" s="32" t="str">
+      <c r="R41" s="29" t="str">
         <f>Inventory!I94</f>
         <v>Gn-Gn-Wh-Or</v>
       </c>
@@ -12641,7 +12643,7 @@
         <f>Inventory!C150</f>
         <v>B--7-49319-X</v>
       </c>
-      <c r="T41" s="32" t="str">
+      <c r="T41" s="29" t="str">
         <f>Inventory!I150</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
@@ -12657,15 +12659,15 @@
         <f>Inventory!C262</f>
         <v>B--5-49069-E</v>
       </c>
-      <c r="X41" s="32" t="str">
+      <c r="X41" s="29" t="str">
         <f>Inventory!I262</f>
         <v>Gn-Bk-Wh-Or</v>
       </c>
-      <c r="Y41" s="36" t="str">
+      <c r="Y41" s="33" t="str">
         <f>Inventory!C318</f>
         <v>B--7-49100-AN</v>
       </c>
-      <c r="Z41" s="32" t="str">
+      <c r="Z41" s="29" t="str">
         <f>Inventory!I318</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -12673,7 +12675,7 @@
         <f>Inventory!C374</f>
         <v>B--7-49341-I</v>
       </c>
-      <c r="AB41" s="32" t="str">
+      <c r="AB41" s="29" t="str">
         <f>Inventory!I374</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
@@ -12685,10 +12687,10 @@
         <f>Inventory!I430</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
-      <c r="AF41" s="48" t="s">
+      <c r="AF41" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="AG41" s="78" t="s">
+      <c r="AG41" s="74" t="s">
         <v>75</v>
       </c>
       <c r="AH41" t="s">
@@ -12699,18 +12701,18 @@
       </c>
     </row>
     <row r="42" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
       <c r="N42" s="12">
         <f>Inventory!B39</f>
         <v>48</v>
@@ -12719,15 +12721,15 @@
         <f>Inventory!C39</f>
         <v>B--9-49354-AS</v>
       </c>
-      <c r="P42" s="32" t="str">
+      <c r="P42" s="29" t="str">
         <f>Inventory!I39</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q42" s="36" t="str">
+      <c r="Q42" s="33" t="str">
         <f>Inventory!C95</f>
         <v>B--7-49078-A</v>
       </c>
-      <c r="R42" s="32" t="str">
+      <c r="R42" s="29" t="str">
         <f>Inventory!I95</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -12735,31 +12737,31 @@
         <f>Inventory!C151</f>
         <v>B--7-49309-U</v>
       </c>
-      <c r="T42" s="32" t="str">
+      <c r="T42" s="29" t="str">
         <f>Inventory!I151</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
-      <c r="U42" s="44" t="str">
+      <c r="U42" s="41" t="str">
         <f>Inventory!C207</f>
         <v>B---49424-C</v>
       </c>
-      <c r="V42" s="45" t="str">
+      <c r="V42" s="42" t="str">
         <f>Inventory!I207</f>
         <v>Gy-Bk-Rd-Gn</v>
       </c>
-      <c r="W42" s="40" t="str">
+      <c r="W42" s="37" t="str">
         <f>Inventory!C263</f>
         <v/>
       </c>
-      <c r="X42" s="41" t="str">
+      <c r="X42" s="38" t="str">
         <f>Inventory!I263</f>
         <v xml:space="preserve">__-Bk-Rd-Gn </v>
       </c>
-      <c r="Y42" s="36" t="str">
+      <c r="Y42" s="33" t="str">
         <f>Inventory!C319</f>
         <v>B--7-49109-AL</v>
       </c>
-      <c r="Z42" s="32" t="str">
+      <c r="Z42" s="29" t="str">
         <f>Inventory!I319</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
@@ -12767,7 +12769,7 @@
         <f>Inventory!C375</f>
         <v>B--7-49341-P</v>
       </c>
-      <c r="AB42" s="32" t="str">
+      <c r="AB42" s="29" t="str">
         <f>Inventory!I375</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
@@ -12782,7 +12784,7 @@
       <c r="AF42" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="AG42" s="78" t="s">
+      <c r="AG42" s="74" t="s">
         <v>75</v>
       </c>
       <c r="AH42" t="s">
@@ -12793,18 +12795,18 @@
       </c>
     </row>
     <row r="43" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
       <c r="N43" s="12">
         <f>Inventory!B40</f>
         <v>49</v>
@@ -12813,15 +12815,15 @@
         <f>Inventory!C40</f>
         <v>B--8-49116-AP</v>
       </c>
-      <c r="P43" s="32" t="str">
+      <c r="P43" s="29" t="str">
         <f>Inventory!I40</f>
         <v>Gn-__-Gn-Or</v>
       </c>
-      <c r="Q43" s="36" t="str">
+      <c r="Q43" s="33" t="str">
         <f>Inventory!C96</f>
         <v>B--7-49309-I</v>
       </c>
-      <c r="R43" s="32" t="str">
+      <c r="R43" s="29" t="str">
         <f>Inventory!I96</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -12829,31 +12831,31 @@
         <f>Inventory!C152</f>
         <v>B--7-49309-O</v>
       </c>
-      <c r="T43" s="32" t="str">
+      <c r="T43" s="29" t="str">
         <f>Inventory!I152</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
-      <c r="U43" s="44" t="str">
+      <c r="U43" s="41" t="str">
         <f>Inventory!C208</f>
         <v>B---49199-B</v>
       </c>
-      <c r="V43" s="45" t="str">
+      <c r="V43" s="42" t="str">
         <f>Inventory!I208</f>
         <v>Gy-Bk-Gn-Gn</v>
       </c>
-      <c r="W43" s="40" t="str">
+      <c r="W43" s="37" t="str">
         <f>Inventory!C264</f>
         <v/>
       </c>
-      <c r="X43" s="41" t="str">
+      <c r="X43" s="38" t="str">
         <f>Inventory!I264</f>
         <v xml:space="preserve">__-Bk-Gn-Gn </v>
       </c>
-      <c r="Y43" s="36" t="str">
+      <c r="Y43" s="33" t="str">
         <f>Inventory!C320</f>
         <v>B--7-49333-AH</v>
       </c>
-      <c r="Z43" s="32" t="str">
+      <c r="Z43" s="29" t="str">
         <f>Inventory!I320</f>
         <v>Gn-Bu-Or-Or</v>
       </c>
@@ -12861,7 +12863,7 @@
         <f>Inventory!C376</f>
         <v>B--7-49341-U</v>
       </c>
-      <c r="AB43" s="32" t="str">
+      <c r="AB43" s="29" t="str">
         <f>Inventory!I376</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
@@ -12873,7 +12875,7 @@
         <f>Inventory!I432</f>
         <v/>
       </c>
-      <c r="AG43" s="78" t="s">
+      <c r="AG43" s="74" t="s">
         <v>75</v>
       </c>
       <c r="AH43" t="s">
@@ -12884,18 +12886,18 @@
       </c>
     </row>
     <row r="44" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
       <c r="N44" s="12">
         <f>Inventory!B41</f>
         <v>50</v>
@@ -12904,15 +12906,15 @@
         <f>Inventory!C41</f>
         <v>B--8-49344-C</v>
       </c>
-      <c r="P44" s="32" t="str">
+      <c r="P44" s="29" t="str">
         <f>Inventory!I41</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="Q44" s="36" t="str">
+      <c r="Q44" s="33" t="str">
         <f>Inventory!C97</f>
         <v>B--7-49321-O</v>
       </c>
-      <c r="R44" s="32" t="str">
+      <c r="R44" s="29" t="str">
         <f>Inventory!I97</f>
         <v>Gn-Gn-Bu-Or</v>
       </c>
@@ -12920,31 +12922,31 @@
         <f>Inventory!C153</f>
         <v>B--7-49319-H</v>
       </c>
-      <c r="T44" s="32" t="str">
+      <c r="T44" s="29" t="str">
         <f>Inventory!I153</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
-      <c r="U44" s="44" t="str">
+      <c r="U44" s="41" t="str">
         <f>Inventory!C209</f>
         <v>B---49192-A</v>
       </c>
-      <c r="V44" s="45" t="str">
+      <c r="V44" s="42" t="str">
         <f>Inventory!I209</f>
         <v>__-Bk-Or-Gn</v>
       </c>
-      <c r="W44" s="40" t="str">
+      <c r="W44" s="37" t="str">
         <f>Inventory!C265</f>
         <v/>
       </c>
-      <c r="X44" s="41" t="str">
+      <c r="X44" s="38" t="str">
         <f>Inventory!I265</f>
         <v xml:space="preserve">__-Bk-Or-Gn </v>
       </c>
-      <c r="Y44" s="36" t="str">
+      <c r="Y44" s="33" t="str">
         <f>Inventory!C321</f>
         <v xml:space="preserve">B--7-49100-AK </v>
       </c>
-      <c r="Z44" s="32" t="str">
+      <c r="Z44" s="29" t="str">
         <f>Inventory!I321</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -12952,7 +12954,7 @@
         <f>Inventory!C377</f>
         <v>B--7-49341-L</v>
       </c>
-      <c r="AB44" s="32" t="str">
+      <c r="AB44" s="29" t="str">
         <f>Inventory!I377</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
@@ -12966,117 +12968,117 @@
       </c>
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
       <c r="N45" s="12">
         <f>Inventory!B42</f>
         <v>51</v>
       </c>
-      <c r="O45" s="28" t="str">
+      <c r="O45" s="25" t="str">
         <f>Inventory!C42</f>
         <v>B--7-48827-D</v>
       </c>
-      <c r="P45" s="33" t="str">
+      <c r="P45" s="30" t="str">
         <f>Inventory!I42</f>
         <v>__-Gy-Bn-Or</v>
       </c>
-      <c r="Q45" s="37" t="str">
+      <c r="Q45" s="34" t="str">
         <f>Inventory!C98</f>
         <v>B--7-49078-C</v>
       </c>
-      <c r="R45" s="33" t="str">
+      <c r="R45" s="30" t="str">
         <f>Inventory!I98</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
-      <c r="S45" s="29" t="str">
+      <c r="S45" s="26" t="str">
         <f>Inventory!C154</f>
         <v>B--7-49309-R</v>
       </c>
-      <c r="T45" s="33" t="str">
+      <c r="T45" s="30" t="str">
         <f>Inventory!I154</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
-      <c r="U45" s="46" t="str">
+      <c r="U45" s="43" t="str">
         <f>Inventory!C210</f>
         <v>B---49183-A</v>
       </c>
-      <c r="V45" s="47" t="str">
+      <c r="V45" s="44" t="str">
         <f>Inventory!I210</f>
         <v>__-Bk-Bn-Or</v>
       </c>
-      <c r="W45" s="42" t="str">
+      <c r="W45" s="39" t="str">
         <f>Inventory!C266</f>
         <v/>
       </c>
-      <c r="X45" s="43" t="str">
+      <c r="X45" s="40" t="str">
         <f>Inventory!I266</f>
         <v xml:space="preserve">__-Bk-Bn-Gn </v>
       </c>
-      <c r="Y45" s="37" t="str">
+      <c r="Y45" s="34" t="str">
         <f>Inventory!C322</f>
         <v>B--7-49107-AA</v>
       </c>
-      <c r="Z45" s="33" t="str">
+      <c r="Z45" s="30" t="str">
         <f>Inventory!I322</f>
         <v>Gn-Bu-Bu-Or</v>
       </c>
-      <c r="AA45" s="29" t="str">
+      <c r="AA45" s="26" t="str">
         <f>Inventory!C378</f>
         <v>B--7-49341-Y</v>
       </c>
-      <c r="AB45" s="33" t="str">
+      <c r="AB45" s="30" t="str">
         <f>Inventory!I378</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
-      <c r="AC45" s="29" t="str">
+      <c r="AC45" s="26" t="str">
         <f>Inventory!C434</f>
         <v>B--8-49341-C</v>
       </c>
-      <c r="AD45" s="30" t="str">
+      <c r="AD45" s="27" t="str">
         <f>Inventory!I434</f>
         <v>Gn-Bu-Gn-Or</v>
       </c>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
       <c r="N46" s="12">
         <f>Inventory!B43</f>
         <v>52</v>
       </c>
-      <c r="O46" s="40" t="str">
+      <c r="O46" s="37" t="str">
         <f>Inventory!C43</f>
         <v xml:space="preserve">B---49214-A </v>
       </c>
-      <c r="P46" s="41" t="str">
+      <c r="P46" s="38" t="str">
         <f>Inventory!I43</f>
         <v>__-Bn-Bk-Gn</v>
       </c>
-      <c r="Q46" s="36" t="str">
+      <c r="Q46" s="33" t="str">
         <f>Inventory!C99</f>
         <v>B--7-49299-AN</v>
       </c>
-      <c r="R46" s="32" t="str">
+      <c r="R46" s="29" t="str">
         <f>Inventory!I99</f>
         <v>__-Pr-Gy-Or</v>
       </c>
@@ -13084,31 +13086,31 @@
         <f>Inventory!C155</f>
         <v xml:space="preserve">B--8-49116-L </v>
       </c>
-      <c r="T46" s="32" t="str">
+      <c r="T46" s="29" t="str">
         <f>Inventory!I155</f>
         <v>Gn-Gy-Gn-Or</v>
       </c>
-      <c r="U46" s="44" t="str">
+      <c r="U46" s="41" t="str">
         <f>Inventory!C211</f>
         <v/>
       </c>
-      <c r="V46" s="45" t="str">
+      <c r="V46" s="42" t="str">
         <f>Inventory!I211</f>
         <v>__-Bk-Bn-Gn</v>
       </c>
-      <c r="W46" s="40" t="str">
+      <c r="W46" s="37" t="str">
         <f>Inventory!C267</f>
         <v>B---49183-B</v>
       </c>
-      <c r="X46" s="41" t="str">
+      <c r="X46" s="38" t="str">
         <f>Inventory!I267</f>
         <v>__-Bk-Bn-Gn</v>
       </c>
-      <c r="Y46" s="36" t="str">
+      <c r="Y46" s="33" t="str">
         <f>Inventory!C323</f>
         <v xml:space="preserve">B--7-49100-Y </v>
       </c>
-      <c r="Z46" s="32" t="str">
+      <c r="Z46" s="29" t="str">
         <f>Inventory!I323</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -13116,7 +13118,7 @@
         <f>Inventory!C379</f>
         <v>B--2-48357-A</v>
       </c>
-      <c r="AB46" s="32" t="str">
+      <c r="AB46" s="29" t="str">
         <f>Inventory!I379</f>
         <v>Gn-Bk-Yl-Or</v>
       </c>
@@ -13130,35 +13132,35 @@
       </c>
     </row>
     <row r="47" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
       <c r="N47" s="12">
         <f>Inventory!B44</f>
         <v>53</v>
       </c>
-      <c r="O47" s="40" t="str">
+      <c r="O47" s="37" t="str">
         <f>Inventory!C44</f>
         <v/>
       </c>
-      <c r="P47" s="41" t="str">
+      <c r="P47" s="38" t="str">
         <f>Inventory!I44</f>
         <v>__-Bn-Bk-Gn</v>
       </c>
-      <c r="Q47" s="36" t="str">
+      <c r="Q47" s="33" t="str">
         <f>Inventory!C100</f>
         <v>B--7-49309-S</v>
       </c>
-      <c r="R47" s="32" t="str">
+      <c r="R47" s="29" t="str">
         <f>Inventory!I100</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -13166,31 +13168,31 @@
         <f>Inventory!C156</f>
         <v>B--7-49309-AN</v>
       </c>
-      <c r="T47" s="32" t="str">
+      <c r="T47" s="29" t="str">
         <f>Inventory!I156</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
-      <c r="U47" s="44" t="str">
+      <c r="U47" s="41" t="str">
         <f>Inventory!C212</f>
         <v/>
       </c>
-      <c r="V47" s="45" t="str">
+      <c r="V47" s="42" t="str">
         <f>Inventory!I212</f>
         <v>__-Bk-Rd-Gn</v>
       </c>
-      <c r="W47" s="40" t="str">
+      <c r="W47" s="37" t="str">
         <f>Inventory!C268</f>
         <v>B---48241-A</v>
       </c>
-      <c r="X47" s="41" t="str">
+      <c r="X47" s="38" t="str">
         <f>Inventory!I268</f>
         <v>__-Bk-Rd-Gn</v>
       </c>
-      <c r="Y47" s="36" t="str">
+      <c r="Y47" s="33" t="str">
         <f>Inventory!C324</f>
         <v>B-1-0-49060-D</v>
       </c>
-      <c r="Z47" s="32" t="str">
+      <c r="Z47" s="29" t="str">
         <f>Inventory!I324</f>
         <v>__-Pr-Pr-Or</v>
       </c>
@@ -13198,7 +13200,7 @@
         <f>Inventory!C380</f>
         <v>B--7-49333-Y</v>
       </c>
-      <c r="AB47" s="32" t="str">
+      <c r="AB47" s="29" t="str">
         <f>Inventory!I380</f>
         <v>Gn-Bu-Or-Or</v>
       </c>
@@ -13212,35 +13214,35 @@
       </c>
     </row>
     <row r="48" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
       <c r="N48" s="12">
         <f>Inventory!B45</f>
         <v>54</v>
       </c>
-      <c r="O48" s="40" t="str">
+      <c r="O48" s="37" t="str">
         <f>Inventory!C45</f>
         <v xml:space="preserve">B---49211-C </v>
       </c>
-      <c r="P48" s="41" t="str">
+      <c r="P48" s="38" t="str">
         <f>Inventory!I45</f>
         <v>__-Bk-Wh-Gn</v>
       </c>
-      <c r="Q48" s="36" t="str">
+      <c r="Q48" s="33" t="str">
         <f>Inventory!C101</f>
         <v>B--7-49323-J</v>
       </c>
-      <c r="R48" s="32" t="str">
+      <c r="R48" s="29" t="str">
         <f>Inventory!I101</f>
         <v>Gn-Gn-Gy-Or</v>
       </c>
@@ -13248,31 +13250,31 @@
         <f>Inventory!C157</f>
         <v>B--7-49319-AT</v>
       </c>
-      <c r="T48" s="32" t="str">
+      <c r="T48" s="29" t="str">
         <f>Inventory!I157</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
-      <c r="U48" s="44" t="str">
+      <c r="U48" s="41" t="str">
         <f>Inventory!C213</f>
         <v/>
       </c>
-      <c r="V48" s="45" t="str">
+      <c r="V48" s="42" t="str">
         <f>Inventory!I213</f>
         <v>__-Bk-Or-Gn</v>
       </c>
-      <c r="W48" s="40" t="str">
+      <c r="W48" s="37" t="str">
         <f>Inventory!C269</f>
         <v>B---48956-D</v>
       </c>
-      <c r="X48" s="41" t="str">
+      <c r="X48" s="38" t="str">
         <f>Inventory!I269</f>
         <v>__-Bk-Or-Gn</v>
       </c>
-      <c r="Y48" s="36" t="str">
+      <c r="Y48" s="33" t="str">
         <f>Inventory!C325</f>
         <v>B--7-49060-C</v>
       </c>
-      <c r="Z48" s="32" t="str">
+      <c r="Z48" s="29" t="str">
         <f>Inventory!I325</f>
         <v>__-Pr-Pr-Or</v>
       </c>
@@ -13280,7 +13282,7 @@
         <f>Inventory!C381</f>
         <v>B--7-49063-B</v>
       </c>
-      <c r="AB48" s="32" t="str">
+      <c r="AB48" s="29" t="str">
         <f>Inventory!I381</f>
         <v>__-Pr-Wh-Or</v>
       </c>
@@ -13294,35 +13296,35 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
       <c r="N49" s="12">
         <f>Inventory!B46</f>
         <v>55</v>
       </c>
-      <c r="O49" s="40" t="str">
+      <c r="O49" s="37" t="str">
         <f>Inventory!C46</f>
         <v/>
       </c>
-      <c r="P49" s="41" t="str">
+      <c r="P49" s="38" t="str">
         <f>Inventory!I46</f>
         <v>__-Bk-Wh-Gn</v>
       </c>
-      <c r="Q49" s="36" t="str">
+      <c r="Q49" s="33" t="str">
         <f>Inventory!C102</f>
         <v>B--7-49078-U</v>
       </c>
-      <c r="R49" s="32" t="str">
+      <c r="R49" s="29" t="str">
         <f>Inventory!I102</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -13330,31 +13332,31 @@
         <f>Inventory!C158</f>
         <v>B--7-49309-AB</v>
       </c>
-      <c r="T49" s="32" t="str">
+      <c r="T49" s="29" t="str">
         <f>Inventory!I158</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
-      <c r="U49" s="44" t="str">
+      <c r="U49" s="41" t="str">
         <f>Inventory!C214</f>
         <v/>
       </c>
-      <c r="V49" s="45" t="str">
+      <c r="V49" s="42" t="str">
         <f>Inventory!I214</f>
         <v>__-Bk-Yl-Gn</v>
       </c>
-      <c r="W49" s="40" t="str">
+      <c r="W49" s="37" t="str">
         <f>Inventory!C270</f>
         <v>B---48961-B</v>
       </c>
-      <c r="X49" s="41" t="str">
+      <c r="X49" s="38" t="str">
         <f>Inventory!I270</f>
         <v>__-Bk-Yl-Gn</v>
       </c>
-      <c r="Y49" s="36" t="str">
+      <c r="Y49" s="33" t="str">
         <f>Inventory!C326</f>
         <v>B--8-49349-AF</v>
       </c>
-      <c r="Z49" s="32" t="str">
+      <c r="Z49" s="29" t="str">
         <f>Inventory!I326</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -13362,7 +13364,7 @@
         <f>Inventory!C382</f>
         <v>B---49303-18H</v>
       </c>
-      <c r="AB49" s="32">
+      <c r="AB49" s="29">
         <f>Inventory!I382</f>
         <v>0</v>
       </c>
@@ -13376,18 +13378,18 @@
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
       <c r="N50" s="12">
         <f>Inventory!B47</f>
         <v>56</v>
@@ -13396,15 +13398,15 @@
         <f>Inventory!C47</f>
         <v xml:space="preserve">B--9-49354-K </v>
       </c>
-      <c r="P50" s="32" t="str">
+      <c r="P50" s="29" t="str">
         <f>Inventory!I47</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q50" s="36" t="str">
+      <c r="Q50" s="33" t="str">
         <f>Inventory!C103</f>
         <v>B--9-49354-I</v>
       </c>
-      <c r="R50" s="32" t="str">
+      <c r="R50" s="29" t="str">
         <f>Inventory!I103</f>
         <v>__-__-__-Or</v>
       </c>
@@ -13412,31 +13414,31 @@
         <f>Inventory!C159</f>
         <v>B--8-49344-U</v>
       </c>
-      <c r="T50" s="32" t="str">
+      <c r="T50" s="29" t="str">
         <f>Inventory!I159</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="U50" s="44" t="str">
+      <c r="U50" s="41" t="str">
         <f>Inventory!C215</f>
         <v/>
       </c>
-      <c r="V50" s="45" t="str">
+      <c r="V50" s="42" t="str">
         <f>Inventory!I215</f>
         <v>__-Bk-Gn-Gn</v>
       </c>
-      <c r="W50" s="40" t="str">
+      <c r="W50" s="37" t="str">
         <f>Inventory!C271</f>
         <v>B---49199-D</v>
       </c>
-      <c r="X50" s="41" t="str">
+      <c r="X50" s="38" t="str">
         <f>Inventory!I271</f>
         <v>__-Bk-Gn-Gn</v>
       </c>
-      <c r="Y50" s="36" t="str">
+      <c r="Y50" s="33" t="str">
         <f>Inventory!C327</f>
         <v>B--8-49349-Z</v>
       </c>
-      <c r="Z50" s="32" t="str">
+      <c r="Z50" s="29" t="str">
         <f>Inventory!I327</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -13444,7 +13446,7 @@
         <f>Inventory!C383</f>
         <v>---cont-</v>
       </c>
-      <c r="AB50" s="32">
+      <c r="AB50" s="29">
         <f>Inventory!I383</f>
         <v>0</v>
       </c>
@@ -13458,18 +13460,18 @@
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
       <c r="N51" s="12">
         <f>Inventory!B48</f>
         <v>57</v>
@@ -13478,15 +13480,15 @@
         <f>Inventory!C48</f>
         <v xml:space="preserve">B--8-49116-AK </v>
       </c>
-      <c r="P51" s="32" t="str">
+      <c r="P51" s="29" t="str">
         <f>Inventory!I48</f>
         <v>Gn-__-Gn-Or</v>
       </c>
-      <c r="Q51" s="36" t="str">
+      <c r="Q51" s="33" t="str">
         <f>Inventory!C104</f>
         <v>B--7-49309-AE</v>
       </c>
-      <c r="R51" s="32" t="str">
+      <c r="R51" s="29" t="str">
         <f>Inventory!I104</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -13494,31 +13496,31 @@
         <f>Inventory!C160</f>
         <v>B--7-49309-E</v>
       </c>
-      <c r="T51" s="32" t="str">
+      <c r="T51" s="29" t="str">
         <f>Inventory!I160</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
-      <c r="U51" s="44" t="str">
+      <c r="U51" s="41" t="str">
         <f>Inventory!C216</f>
         <v/>
       </c>
-      <c r="V51" s="45" t="str">
+      <c r="V51" s="42" t="str">
         <f>Inventory!I216</f>
         <v>__-Bk-Bu-Gn</v>
       </c>
-      <c r="W51" s="40" t="str">
+      <c r="W51" s="37" t="str">
         <f>Inventory!C272</f>
         <v>B---49204-B</v>
       </c>
-      <c r="X51" s="41" t="str">
+      <c r="X51" s="38" t="str">
         <f>Inventory!I272</f>
         <v>__-Bk-Bu-Gn</v>
       </c>
-      <c r="Y51" s="36" t="str">
+      <c r="Y51" s="33" t="str">
         <f>Inventory!C328</f>
         <v>B--8-49349-C</v>
       </c>
-      <c r="Z51" s="32" t="str">
+      <c r="Z51" s="29" t="str">
         <f>Inventory!I328</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -13526,7 +13528,7 @@
         <f>Inventory!C384</f>
         <v>---cont-</v>
       </c>
-      <c r="AB51" s="32">
+      <c r="AB51" s="29">
         <f>Inventory!I384</f>
         <v>0</v>
       </c>
@@ -13540,18 +13542,18 @@
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
       <c r="N52" s="12">
         <f>Inventory!B49</f>
         <v>58</v>
@@ -13560,15 +13562,15 @@
         <f>Inventory!C49</f>
         <v xml:space="preserve">B--8-49344-W </v>
       </c>
-      <c r="P52" s="32" t="str">
+      <c r="P52" s="29" t="str">
         <f>Inventory!I49</f>
         <v>Gn-Bu-Pr-Or</v>
       </c>
-      <c r="Q52" s="36" t="str">
+      <c r="Q52" s="33" t="str">
         <f>Inventory!C105</f>
         <v>B--7-49086-P</v>
       </c>
-      <c r="R52" s="32" t="str">
+      <c r="R52" s="29" t="str">
         <f>Inventory!I105</f>
         <v>Gn-Gn-Pr-Or</v>
       </c>
@@ -13576,7 +13578,7 @@
         <f>Inventory!C161</f>
         <v>B--7-49319-AU</v>
       </c>
-      <c r="T52" s="32" t="str">
+      <c r="T52" s="29" t="str">
         <f>Inventory!I161</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
@@ -13592,15 +13594,15 @@
         <f>Inventory!C273</f>
         <v>B--8-49349-C</v>
       </c>
-      <c r="X52" s="32" t="str">
+      <c r="X52" s="29" t="str">
         <f>Inventory!I273</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
-      <c r="Y52" s="36" t="str">
+      <c r="Y52" s="33" t="str">
         <f>Inventory!C329</f>
         <v>B--8-49349-AH</v>
       </c>
-      <c r="Z52" s="32" t="str">
+      <c r="Z52" s="29" t="str">
         <f>Inventory!I329</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -13608,7 +13610,7 @@
         <f>Inventory!C385</f>
         <v>B--8-49353-E</v>
       </c>
-      <c r="AB52" s="32" t="str">
+      <c r="AB52" s="29" t="str">
         <f>Inventory!I385</f>
         <v>Gn-Gy-Bk-Or</v>
       </c>
@@ -13630,15 +13632,15 @@
         <f>Inventory!C50</f>
         <v xml:space="preserve">B--7-49299-AK </v>
       </c>
-      <c r="P53" s="32" t="str">
+      <c r="P53" s="29" t="str">
         <f>Inventory!I50</f>
         <v>__-Pr-Gy-Or</v>
       </c>
-      <c r="Q53" s="36" t="str">
+      <c r="Q53" s="33" t="str">
         <f>Inventory!C106</f>
         <v>B--7-49078-Z</v>
       </c>
-      <c r="R53" s="32" t="str">
+      <c r="R53" s="29" t="str">
         <f>Inventory!I106</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -13646,7 +13648,7 @@
         <f>Inventory!C162</f>
         <v>B--7-49309-AD</v>
       </c>
-      <c r="T53" s="32" t="str">
+      <c r="T53" s="29" t="str">
         <f>Inventory!I162</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -13662,15 +13664,15 @@
         <f>Inventory!C274</f>
         <v>B--8-49349-D</v>
       </c>
-      <c r="X53" s="32" t="str">
+      <c r="X53" s="29" t="str">
         <f>Inventory!I274</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
-      <c r="Y53" s="36" t="str">
+      <c r="Y53" s="33" t="str">
         <f>Inventory!C330</f>
         <v>B--8-49349-E</v>
       </c>
-      <c r="Z53" s="32" t="str">
+      <c r="Z53" s="29" t="str">
         <f>Inventory!I330</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -13678,7 +13680,7 @@
         <f>Inventory!C386</f>
         <v>B--7-49100-AP</v>
       </c>
-      <c r="AB53" s="32" t="str">
+      <c r="AB53" s="29" t="str">
         <f>Inventory!I386</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -13692,30 +13694,30 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="21" t="s">
+      <c r="C54" s="79"/>
+      <c r="D54" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="21" t="s">
+      <c r="E54" s="79"/>
+      <c r="F54" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="22"/>
-      <c r="H54" s="21" t="s">
+      <c r="G54" s="79"/>
+      <c r="H54" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="21" t="s">
+      <c r="I54" s="79"/>
+      <c r="J54" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="22"/>
-      <c r="L54" s="21" t="s">
+      <c r="K54" s="79"/>
+      <c r="L54" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M54" s="22"/>
+      <c r="M54" s="79"/>
       <c r="N54" s="12">
         <f>Inventory!B51</f>
         <v>60</v>
@@ -13724,15 +13726,15 @@
         <f>Inventory!C51</f>
         <v xml:space="preserve">B--9-49354-D </v>
       </c>
-      <c r="P54" s="32" t="str">
+      <c r="P54" s="29" t="str">
         <f>Inventory!I51</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q54" s="36" t="str">
+      <c r="Q54" s="33" t="str">
         <f>Inventory!C107</f>
         <v>B--7-49309-N</v>
       </c>
-      <c r="R54" s="32" t="str">
+      <c r="R54" s="29" t="str">
         <f>Inventory!I107</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -13740,7 +13742,7 @@
         <f>Inventory!C163</f>
         <v>B--7-49309-X</v>
       </c>
-      <c r="T54" s="32" t="str">
+      <c r="T54" s="29" t="str">
         <f>Inventory!I163</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -13756,15 +13758,15 @@
         <f>Inventory!C275</f>
         <v>B--8-49349-AC</v>
       </c>
-      <c r="X54" s="32" t="str">
+      <c r="X54" s="29" t="str">
         <f>Inventory!I275</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
-      <c r="Y54" s="36" t="str">
+      <c r="Y54" s="33" t="str">
         <f>Inventory!C331</f>
         <v>B--8-49349-AJ</v>
       </c>
-      <c r="Z54" s="32" t="str">
+      <c r="Z54" s="29" t="str">
         <f>Inventory!I331</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -13772,7 +13774,7 @@
         <f>Inventory!C387</f>
         <v>B--7-48862-N</v>
       </c>
-      <c r="AB54" s="32" t="str">
+      <c r="AB54" s="29" t="str">
         <f>Inventory!I387</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -13786,46 +13788,46 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="24" t="str">
+      <c r="B55" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="24" t="str">
+      <c r="D55" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="F55" s="24" t="str">
+      <c r="F55" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="G55" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="H55" s="24" t="str">
+      <c r="H55" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="I55" s="25" t="s">
+      <c r="I55" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="J55" s="24" t="str">
+      <c r="J55" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="K55" s="25" t="s">
+      <c r="K55" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="L55" s="24" t="str">
+      <c r="L55" s="21" t="str">
         <f>Inventory!$C$1</f>
         <v>Part No</v>
       </c>
-      <c r="M55" s="25" t="s">
+      <c r="M55" s="22" t="s">
         <v>182</v>
       </c>
       <c r="N55" s="12">
@@ -13836,15 +13838,15 @@
         <f>Inventory!C52</f>
         <v xml:space="preserve">B--9-49354-D </v>
       </c>
-      <c r="P55" s="32" t="str">
+      <c r="P55" s="29" t="str">
         <f>Inventory!I52</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q55" s="36" t="str">
+      <c r="Q55" s="33" t="str">
         <f>Inventory!C108</f>
         <v>B--7-49324-V</v>
       </c>
-      <c r="R55" s="32" t="str">
+      <c r="R55" s="29" t="str">
         <f>Inventory!I108</f>
         <v>Gn-Gn-Wh-Or</v>
       </c>
@@ -13852,7 +13854,7 @@
         <f>Inventory!C164</f>
         <v>B--7-49319-I</v>
       </c>
-      <c r="T55" s="32" t="str">
+      <c r="T55" s="29" t="str">
         <f>Inventory!I164</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
@@ -13868,15 +13870,15 @@
         <f>Inventory!C276</f>
         <v>B--8-49349-AE</v>
       </c>
-      <c r="X55" s="32" t="str">
+      <c r="X55" s="29" t="str">
         <f>Inventory!I276</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
-      <c r="Y55" s="36" t="str">
+      <c r="Y55" s="33" t="str">
         <f>Inventory!C332</f>
         <v>B--8-49349-O</v>
       </c>
-      <c r="Z55" s="32" t="str">
+      <c r="Z55" s="29" t="str">
         <f>Inventory!I332</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -13884,7 +13886,7 @@
         <f>Inventory!C388</f>
         <v>B-1-0-49332-Y</v>
       </c>
-      <c r="AB55" s="32" t="str">
+      <c r="AB55" s="29" t="str">
         <f>Inventory!I388</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
@@ -13901,45 +13903,45 @@
       <c r="A56" s="12">
         <v>7</v>
       </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="58" t="str">
+      <c r="B56" s="54"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="55" t="str">
         <f>Inventory!C506</f>
         <v>49251-C</v>
       </c>
-      <c r="E56" s="74">
+      <c r="E56" s="70">
         <f>Inventory!D506</f>
         <v>21</v>
       </c>
-      <c r="F56" s="58" t="str">
+      <c r="F56" s="55" t="str">
         <f>Inventory!C501</f>
         <v>49282-D</v>
       </c>
-      <c r="G56" s="55" t="str">
+      <c r="G56" s="52" t="str">
         <f>Inventory!D501</f>
         <v>39F</v>
       </c>
-      <c r="H56" s="58" t="str">
+      <c r="H56" s="55" t="str">
         <f>Inventory!C496</f>
         <v>49031-A</v>
       </c>
-      <c r="I56" s="55" t="str">
+      <c r="I56" s="52" t="str">
         <f>Inventory!D496</f>
         <v>32A</v>
       </c>
-      <c r="J56" s="58" t="str">
+      <c r="J56" s="55" t="str">
         <f>Inventory!C491</f>
         <v>??-</v>
       </c>
-      <c r="K56" s="55" t="str">
+      <c r="K56" s="52" t="str">
         <f>Inventory!D491</f>
         <v>??</v>
       </c>
-      <c r="L56" s="58" t="str">
+      <c r="L56" s="55" t="str">
         <f>Inventory!C486</f>
         <v>49254-?</v>
       </c>
-      <c r="M56" s="75" t="str">
+      <c r="M56" s="71" t="str">
         <f>Inventory!D486</f>
         <v>21F</v>
       </c>
@@ -13951,15 +13953,15 @@
         <f>Inventory!C53</f>
         <v>B--7-49299-V</v>
       </c>
-      <c r="P56" s="32" t="str">
+      <c r="P56" s="29" t="str">
         <f>Inventory!I53</f>
         <v>__-Pr-Gy-Or</v>
       </c>
-      <c r="Q56" s="36" t="str">
+      <c r="Q56" s="33" t="str">
         <f>Inventory!C109</f>
         <v>B--7-49078-Q</v>
       </c>
-      <c r="R56" s="32" t="str">
+      <c r="R56" s="29" t="str">
         <f>Inventory!I109</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
@@ -13967,7 +13969,7 @@
         <f>Inventory!C165</f>
         <v>B--7-49309-AL</v>
       </c>
-      <c r="T56" s="32" t="str">
+      <c r="T56" s="29" t="str">
         <f>Inventory!I165</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -13983,15 +13985,15 @@
         <f>Inventory!C277</f>
         <v>B--8-49349-W</v>
       </c>
-      <c r="X56" s="32" t="str">
+      <c r="X56" s="29" t="str">
         <f>Inventory!I277</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
-      <c r="Y56" s="36" t="str">
+      <c r="Y56" s="33" t="str">
         <f>Inventory!C333</f>
         <v>B--8-47051-O</v>
       </c>
-      <c r="Z56" s="32" t="str">
+      <c r="Z56" s="29" t="str">
         <f>Inventory!I333</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -13999,7 +14001,7 @@
         <f>Inventory!C389</f>
         <v>B--7-49100-AO</v>
       </c>
-      <c r="AB56" s="32" t="str">
+      <c r="AB56" s="29" t="str">
         <f>Inventory!I389</f>
         <v>Gn-Bu-Yl-Or</v>
       </c>
@@ -14016,45 +14018,45 @@
       <c r="A57" s="12">
         <v>8</v>
       </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="60" t="str">
+      <c r="B57" s="56"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="57" t="str">
         <f>Inventory!C507</f>
         <v>49292-A</v>
       </c>
-      <c r="E57" s="67" t="str">
+      <c r="E57" s="63" t="str">
         <f>Inventory!D507</f>
         <v>47F</v>
       </c>
-      <c r="F57" s="60" t="str">
+      <c r="F57" s="57" t="str">
         <f>Inventory!C502</f>
         <v>49292-J</v>
       </c>
-      <c r="G57" s="67" t="str">
+      <c r="G57" s="63" t="str">
         <f>Inventory!D502</f>
         <v>47F</v>
       </c>
-      <c r="H57" s="60" t="str">
+      <c r="H57" s="57" t="str">
         <f>Inventory!C497</f>
         <v>49291-G</v>
       </c>
-      <c r="I57" s="67" t="str">
+      <c r="I57" s="63" t="str">
         <f>Inventory!D497</f>
         <v>47F</v>
       </c>
-      <c r="J57" s="60" t="str">
+      <c r="J57" s="57" t="str">
         <f>Inventory!C492</f>
         <v>49290-A</v>
       </c>
-      <c r="K57" s="67" t="str">
+      <c r="K57" s="63" t="str">
         <f>Inventory!D492</f>
         <v>47F</v>
       </c>
-      <c r="L57" s="60" t="str">
+      <c r="L57" s="57" t="str">
         <f>Inventory!C487</f>
         <v>54738-B</v>
       </c>
-      <c r="M57" s="68" t="str">
+      <c r="M57" s="64" t="str">
         <f>Inventory!D487</f>
         <v>47F</v>
       </c>
@@ -14066,15 +14068,15 @@
         <f>Inventory!C54</f>
         <v xml:space="preserve">B--9-49354-F </v>
       </c>
-      <c r="P57" s="32" t="str">
+      <c r="P57" s="29" t="str">
         <f>Inventory!I54</f>
         <v>__-__-__-Or</v>
       </c>
-      <c r="Q57" s="36" t="str">
+      <c r="Q57" s="33" t="str">
         <f>Inventory!C110</f>
         <v>B--7-49309-AA</v>
       </c>
-      <c r="R57" s="32" t="str">
+      <c r="R57" s="29" t="str">
         <f>Inventory!I110</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -14082,7 +14084,7 @@
         <f>Inventory!C166</f>
         <v>B--7-49309-AK</v>
       </c>
-      <c r="T57" s="32" t="str">
+      <c r="T57" s="29" t="str">
         <f>Inventory!I166</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -14098,15 +14100,15 @@
         <f>Inventory!C278</f>
         <v>B--8-49349-M</v>
       </c>
-      <c r="X57" s="32" t="str">
+      <c r="X57" s="29" t="str">
         <f>Inventory!I278</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
-      <c r="Y57" s="36" t="str">
+      <c r="Y57" s="33" t="str">
         <f>Inventory!C334</f>
         <v>B--8-49349-J</v>
       </c>
-      <c r="Z57" s="32" t="str">
+      <c r="Z57" s="29" t="str">
         <f>Inventory!I334</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -14114,7 +14116,7 @@
         <f>Inventory!C390</f>
         <v>B-1-0-49332-AI</v>
       </c>
-      <c r="AB57" s="32" t="str">
+      <c r="AB57" s="29" t="str">
         <f>Inventory!I390</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
@@ -14131,45 +14133,45 @@
       <c r="A58" s="12">
         <v>9</v>
       </c>
-      <c r="B58" s="59"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="60" t="str">
+      <c r="B58" s="56"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="57" t="str">
         <f>Inventory!C508</f>
         <v>?-B</v>
       </c>
-      <c r="E58" s="67" t="str">
+      <c r="E58" s="63" t="str">
         <f>Inventory!D508</f>
         <v>47F</v>
       </c>
-      <c r="F58" s="60" t="str">
+      <c r="F58" s="57" t="str">
         <f>Inventory!C503</f>
         <v>49292-E</v>
       </c>
-      <c r="G58" s="67" t="str">
+      <c r="G58" s="63" t="str">
         <f>Inventory!D503</f>
         <v>47F</v>
       </c>
-      <c r="H58" s="60" t="str">
+      <c r="H58" s="57" t="str">
         <f>Inventory!C498</f>
         <v>49292-F</v>
       </c>
-      <c r="I58" s="67" t="str">
+      <c r="I58" s="63" t="str">
         <f>Inventory!D498</f>
         <v>47F</v>
       </c>
-      <c r="J58" s="60" t="str">
+      <c r="J58" s="57" t="str">
         <f>Inventory!C493</f>
         <v>49290-F</v>
       </c>
-      <c r="K58" s="67" t="str">
+      <c r="K58" s="63" t="str">
         <f>Inventory!D493</f>
         <v>47F</v>
       </c>
-      <c r="L58" s="60" t="str">
+      <c r="L58" s="57" t="str">
         <f>Inventory!C488</f>
         <v>49290-J</v>
       </c>
-      <c r="M58" s="68" t="str">
+      <c r="M58" s="64" t="str">
         <f>Inventory!D488</f>
         <v>47F</v>
       </c>
@@ -14181,15 +14183,15 @@
         <f>Inventory!C55</f>
         <v xml:space="preserve">B--7-49078-D </v>
       </c>
-      <c r="P58" s="32" t="str">
+      <c r="P58" s="29" t="str">
         <f>Inventory!I55</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
-      <c r="Q58" s="36" t="str">
+      <c r="Q58" s="33" t="str">
         <f>Inventory!C111</f>
         <v>B--7-49321-V</v>
       </c>
-      <c r="R58" s="32" t="str">
+      <c r="R58" s="29" t="str">
         <f>Inventory!I111</f>
         <v>Gn-Gn-Bu-Or</v>
       </c>
@@ -14197,7 +14199,7 @@
         <f>Inventory!C167</f>
         <v>B--7-49319-AB</v>
       </c>
-      <c r="T58" s="32" t="str">
+      <c r="T58" s="29" t="str">
         <f>Inventory!I167</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
@@ -14213,15 +14215,15 @@
         <f>Inventory!C279</f>
         <v>B--8-49349-H</v>
       </c>
-      <c r="X58" s="32" t="str">
+      <c r="X58" s="29" t="str">
         <f>Inventory!I279</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
-      <c r="Y58" s="36" t="str">
+      <c r="Y58" s="33" t="str">
         <f>Inventory!C335</f>
         <v>B--8-49349-A</v>
       </c>
-      <c r="Z58" s="32" t="str">
+      <c r="Z58" s="29" t="str">
         <f>Inventory!I335</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -14229,7 +14231,7 @@
         <f>Inventory!C391</f>
         <v>B-1-0-49332-G</v>
       </c>
-      <c r="AB58" s="32" t="str">
+      <c r="AB58" s="29" t="str">
         <f>Inventory!I391</f>
         <v>Gn-Bu-Rd-Or</v>
       </c>
@@ -14246,45 +14248,45 @@
       <c r="A59" s="12">
         <v>10</v>
       </c>
-      <c r="B59" s="59"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="60" t="str">
+      <c r="B59" s="56"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="57" t="str">
         <f>Inventory!C509</f>
         <v>49292-B</v>
       </c>
-      <c r="E59" s="67" t="str">
+      <c r="E59" s="63" t="str">
         <f>Inventory!D509</f>
         <v>47F</v>
       </c>
-      <c r="F59" s="60" t="str">
+      <c r="F59" s="57" t="str">
         <f>Inventory!C504</f>
         <v>48340-C</v>
       </c>
-      <c r="G59" s="67" t="str">
+      <c r="G59" s="63" t="str">
         <f>Inventory!D504</f>
         <v>47F</v>
       </c>
-      <c r="H59" s="60" t="str">
+      <c r="H59" s="57" t="str">
         <f>Inventory!C499</f>
         <v>49292-H</v>
       </c>
-      <c r="I59" s="67" t="str">
+      <c r="I59" s="63" t="str">
         <f>Inventory!D499</f>
         <v>47F</v>
       </c>
-      <c r="J59" s="60" t="str">
+      <c r="J59" s="57" t="str">
         <f>Inventory!C494</f>
         <v>49290-?</v>
       </c>
-      <c r="K59" s="67" t="str">
+      <c r="K59" s="63" t="str">
         <f>Inventory!D494</f>
         <v>47F</v>
       </c>
-      <c r="L59" s="60" t="str">
+      <c r="L59" s="57" t="str">
         <f>Inventory!C489</f>
         <v>49290-C</v>
       </c>
-      <c r="M59" s="68" t="str">
+      <c r="M59" s="64" t="str">
         <f>Inventory!D489</f>
         <v>47F</v>
       </c>
@@ -14296,15 +14298,15 @@
         <f>Inventory!C56</f>
         <v>B--7-49299-AR</v>
       </c>
-      <c r="P59" s="32" t="str">
+      <c r="P59" s="29" t="str">
         <f>Inventory!I56</f>
         <v>__-Pr-Gy-Or</v>
       </c>
-      <c r="Q59" s="36" t="str">
+      <c r="Q59" s="33" t="str">
         <f>Inventory!C112</f>
         <v>B--7-49309-P</v>
       </c>
-      <c r="R59" s="32" t="str">
+      <c r="R59" s="29" t="str">
         <f>Inventory!I112</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -14312,7 +14314,7 @@
         <f>Inventory!C168</f>
         <v>B--7-49309-K</v>
       </c>
-      <c r="T59" s="32" t="str">
+      <c r="T59" s="29" t="str">
         <f>Inventory!I168</f>
         <v>Gn-Gn-Bn-Or</v>
       </c>
@@ -14328,15 +14330,15 @@
         <f>Inventory!C280</f>
         <v>B--8-49350-X</v>
       </c>
-      <c r="X59" s="32" t="str">
+      <c r="X59" s="29" t="str">
         <f>Inventory!I280</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
-      <c r="Y59" s="36" t="str">
+      <c r="Y59" s="33" t="str">
         <f>Inventory!C336</f>
         <v>B--8-49349-S</v>
       </c>
-      <c r="Z59" s="32" t="str">
+      <c r="Z59" s="29" t="str">
         <f>Inventory!I336</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -14344,7 +14346,7 @@
         <f>Inventory!C392</f>
         <v>B--8-49350-Z</v>
       </c>
-      <c r="AB59" s="32" t="str">
+      <c r="AB59" s="29" t="str">
         <f>Inventory!I392</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -14361,21 +14363,21 @@
       <c r="A60" s="12">
         <v>11</v>
       </c>
-      <c r="B60" s="61"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="63" t="str">
+      <c r="B60" s="58"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="60" t="str">
         <f>Inventory!C495</f>
         <v/>
       </c>
-      <c r="K60" s="62"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="64"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="61"/>
       <c r="N60" s="12">
         <f>Inventory!B57</f>
         <v>66</v>
@@ -14384,15 +14386,15 @@
         <f>Inventory!C57</f>
         <v>B--7-49078-C</v>
       </c>
-      <c r="P60" s="34" t="str">
+      <c r="P60" s="31" t="str">
         <f>Inventory!I57</f>
         <v>Gn-Gn-Rd-Or</v>
       </c>
-      <c r="Q60" s="38" t="str">
+      <c r="Q60" s="35" t="str">
         <f>Inventory!C113</f>
         <v>B--7-49324-M</v>
       </c>
-      <c r="R60" s="34" t="str">
+      <c r="R60" s="31" t="str">
         <f>Inventory!I113</f>
         <v>Gn-Gn-Wh-Or</v>
       </c>
@@ -14400,7 +14402,7 @@
         <f>Inventory!C169</f>
         <v>B--7-49319-AP</v>
       </c>
-      <c r="T60" s="34" t="str">
+      <c r="T60" s="31" t="str">
         <f>Inventory!I169</f>
         <v>Gn-Gn-Yl-Or</v>
       </c>
@@ -14416,15 +14418,15 @@
         <f>Inventory!C281</f>
         <v>B--8-49350-AC</v>
       </c>
-      <c r="X60" s="34" t="str">
+      <c r="X60" s="31" t="str">
         <f>Inventory!I281</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
-      <c r="Y60" s="38" t="str">
+      <c r="Y60" s="35" t="str">
         <f>Inventory!C337</f>
         <v>B--8-49349-O</v>
       </c>
-      <c r="Z60" s="34" t="str">
+      <c r="Z60" s="31" t="str">
         <f>Inventory!I337</f>
         <v>Gn-Pr-Or-Or</v>
       </c>
@@ -14432,7 +14434,7 @@
         <f>Inventory!C393</f>
         <v>B--8-49353-C</v>
       </c>
-      <c r="AB60" s="34" t="str">
+      <c r="AB60" s="31" t="str">
         <f>Inventory!I393</f>
         <v>Gn-Gy-Bk-Or</v>
       </c>
@@ -14447,6 +14449,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="B1:AD1"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
@@ -14463,11 +14470,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
   </mergeCells>
   <conditionalFormatting sqref="O5:AD60">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
@@ -14509,8 +14511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6B9AAA-EAD8-B54D-9AE8-5E8C1311B554}">
   <dimension ref="A1:M516"/>
   <sheetViews>
-    <sheetView topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="D457" sqref="D457"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D481" sqref="D481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29208,7 +29210,7 @@
         <v>60</v>
       </c>
       <c r="C387" t="str">
-        <f t="shared" ref="C387:C451" si="12">IF(NOT(ISBLANK(G387)),CONCATENATE(D387,"-",E387,"-",F387,"-",G387,"-",H387),"")</f>
+        <f t="shared" ref="C387:C449" si="12">IF(NOT(ISBLANK(G387)),CONCATENATE(D387,"-",E387,"-",F387,"-",G387,"-",H387),"")</f>
         <v>B--7-48862-N</v>
       </c>
       <c r="D387" t="s">
@@ -32047,7 +32049,7 @@
       <c r="D469">
         <v>35</v>
       </c>
-      <c r="G469" s="53">
+      <c r="G469" s="50">
         <v>49040</v>
       </c>
       <c r="H469" t="s">
@@ -32273,7 +32275,7 @@
         <v>-</v>
       </c>
       <c r="D480" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.2">
@@ -32936,7 +32938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AE880D-4CC2-1D42-849C-BBC02D79EE86}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -33038,7 +33040,7 @@
       <c r="B4" s="10">
         <v>6</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="75">
         <f>IF(NOT(ISNA(VLOOKUP(A4,$E$4:$F$49,2,FALSE))),VLOOKUP(A4,$E$4:$F$49,2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -33092,7 +33094,7 @@
       <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33110,7 +33112,7 @@
       <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33128,7 +33130,7 @@
       <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33146,7 +33148,7 @@
       <c r="B10" s="10">
         <v>4</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33164,7 +33166,7 @@
       <c r="B11" s="10">
         <v>5</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33182,7 +33184,7 @@
       <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33200,7 +33202,7 @@
       <c r="B13" s="10">
         <v>2</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33218,7 +33220,7 @@
       <c r="B14" s="10">
         <v>7</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33236,7 +33238,7 @@
       <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33254,7 +33256,7 @@
       <c r="B16" s="10">
         <v>2</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33272,7 +33274,7 @@
       <c r="B17" s="10">
         <v>6</v>
       </c>
-      <c r="C17" s="79">
+      <c r="C17" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33290,7 +33292,7 @@
       <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="79">
+      <c r="C18" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33308,7 +33310,7 @@
       <c r="B19" s="10">
         <v>2</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33326,7 +33328,7 @@
       <c r="B20" s="10">
         <v>4</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33344,7 +33346,7 @@
       <c r="B21" s="10">
         <v>2</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33362,7 +33364,7 @@
       <c r="B22" s="10">
         <v>1</v>
       </c>
-      <c r="C22" s="79">
+      <c r="C22" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33380,7 +33382,7 @@
       <c r="B23" s="10">
         <v>5</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="76">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -33398,7 +33400,7 @@
       <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33416,7 +33418,7 @@
       <c r="B25" s="10">
         <v>2</v>
       </c>
-      <c r="C25" s="79">
+      <c r="C25" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33434,7 +33436,7 @@
       <c r="B26" s="10">
         <v>11</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="76">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -33470,7 +33472,7 @@
       <c r="B28" s="10">
         <v>1</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33488,7 +33490,7 @@
       <c r="B29" s="10">
         <v>6</v>
       </c>
-      <c r="C29" s="79">
+      <c r="C29" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33614,7 +33616,7 @@
       <c r="B38" s="10">
         <v>38</v>
       </c>
-      <c r="C38" s="80">
+      <c r="C38" s="76">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -33746,7 +33748,7 @@
       <c r="B49" s="10">
         <v>2</v>
       </c>
-      <c r="C49" s="79">
+      <c r="C49" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33758,7 +33760,7 @@
       <c r="B50" s="10">
         <v>12</v>
       </c>
-      <c r="C50" s="80">
+      <c r="C50" s="76">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -33770,7 +33772,7 @@
       <c r="B51" s="10">
         <v>6</v>
       </c>
-      <c r="C51" s="80">
+      <c r="C51" s="76">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -33782,7 +33784,7 @@
       <c r="B52" s="10">
         <v>25</v>
       </c>
-      <c r="C52" s="80">
+      <c r="C52" s="76">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -33794,7 +33796,7 @@
       <c r="B53" s="10">
         <v>1</v>
       </c>
-      <c r="C53" s="79">
+      <c r="C53" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33806,7 +33808,7 @@
       <c r="B54" s="10">
         <v>1</v>
       </c>
-      <c r="C54" s="79">
+      <c r="C54" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33816,7 +33818,7 @@
         <v>160</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="79">
+      <c r="C55" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -34947,8 +34949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B205998B-DEAC-C94C-B248-257C79D1FF90}">
   <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
